--- a/capiq_data/in_process_data/IQ29729.xlsx
+++ b/capiq_data/in_process_data/IQ29729.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CE1BA0-8B67-456D-A4A2-4DD3C83EE807}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A174B7-2A56-4042-B667-4A29589FC37E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"36a591c8-061f-4376-8291-079a3ff52711"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"1a9ecb7b-d1d4-4354-8452-d2b99f8a8976"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>36.371000000000002</v>
+        <v>9.8010000000000002</v>
       </c>
       <c r="D2">
-        <v>283.75700000000001</v>
+        <v>91.066000000000003</v>
       </c>
       <c r="E2">
-        <v>120.08</v>
+        <v>57.265999999999998</v>
       </c>
       <c r="F2">
-        <v>144.77099999999999</v>
+        <v>44.024999999999999</v>
       </c>
       <c r="G2">
-        <v>460.59100000000001</v>
+        <v>215.83</v>
       </c>
       <c r="H2">
-        <v>897.14400000000001</v>
+        <v>335.79599999999999</v>
       </c>
       <c r="I2">
-        <v>22.669</v>
+        <v>13.714</v>
       </c>
       <c r="J2">
-        <v>3.4180000000000001</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>8.4719999999999995</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>285.11200000000002</v>
+        <v>74.049000000000007</v>
       </c>
       <c r="O2">
-        <v>322.863</v>
+        <v>74.049000000000007</v>
       </c>
       <c r="P2">
-        <v>133.28</v>
+        <v>8.4719999999999995</v>
       </c>
       <c r="Q2">
-        <v>23.402999999999999</v>
+        <v>7.2809999999999997</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>4800</v>
+        <v>2250</v>
       </c>
       <c r="T2">
-        <v>574.28099999999995</v>
+        <v>261.74700000000001</v>
       </c>
       <c r="U2">
-        <v>156.91499999999999</v>
+        <v>39.055</v>
       </c>
       <c r="V2">
-        <v>48.85</v>
+        <v>9.2059999999999995</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-11.49</v>
+        <v>-18.050999999999998</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>21.128</v>
       </c>
       <c r="AA2">
-        <v>36.371000000000002</v>
+        <v>9.8010000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>36.612000000000002</v>
+        <v>7.609</v>
       </c>
       <c r="D3">
-        <v>292.67200000000003</v>
+        <v>91.426000000000002</v>
       </c>
       <c r="E3">
-        <v>137.55099999999999</v>
+        <v>56.838999999999999</v>
       </c>
       <c r="F3">
-        <v>154.92500000000001</v>
+        <v>43.865000000000002</v>
       </c>
       <c r="G3">
-        <v>465.44099999999997</v>
+        <v>206.56200000000001</v>
       </c>
       <c r="H3">
-        <v>909.47799999999995</v>
+        <v>322.58800000000002</v>
       </c>
       <c r="I3">
-        <v>23.334</v>
+        <v>11.135</v>
       </c>
       <c r="J3">
-        <v>3.194</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>8.4730000000000008</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-2.6970000000000001</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>272.57</v>
+        <v>65.442999999999998</v>
       </c>
       <c r="O3">
-        <v>312.57</v>
+        <v>65.442999999999998</v>
       </c>
       <c r="P3">
-        <v>131.99199999999999</v>
+        <v>8.4730000000000008</v>
       </c>
       <c r="Q3">
-        <v>-3.456</v>
+        <v>-11.144</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>596.90800000000002</v>
+        <v>257.14499999999998</v>
       </c>
       <c r="U3">
-        <v>153.459</v>
+        <v>27.87</v>
       </c>
       <c r="V3">
-        <v>25.218</v>
+        <v>-6.9589999999999996</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-23.45</v>
+        <v>-11.315</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>11.565</v>
       </c>
       <c r="AA3">
-        <v>36.612000000000002</v>
+        <v>7.609</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>48.656999999999996</v>
+        <v>9.9659999999999993</v>
       </c>
       <c r="D4">
-        <v>317.86200000000002</v>
+        <v>102.001</v>
       </c>
       <c r="E4">
-        <v>149.31399999999999</v>
+        <v>56.481999999999999</v>
       </c>
       <c r="F4">
-        <v>174.03299999999999</v>
+        <v>49.512999999999998</v>
       </c>
       <c r="G4">
-        <v>493.57100000000003</v>
+        <v>223.285</v>
       </c>
       <c r="H4">
-        <v>950.57500000000005</v>
+        <v>342.61200000000002</v>
       </c>
       <c r="I4">
-        <v>29.888000000000002</v>
+        <v>11.029</v>
       </c>
       <c r="J4">
-        <v>2.9660000000000002</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>8.4949999999999992</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>298.137</v>
+        <v>66.620999999999995</v>
       </c>
       <c r="O4">
-        <v>341.76400000000001</v>
+        <v>66.620999999999995</v>
       </c>
       <c r="P4">
-        <v>137.45500000000001</v>
+        <v>8.4949999999999992</v>
       </c>
       <c r="Q4">
-        <v>5.9390000000000001</v>
+        <v>14.632</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>608.81100000000004</v>
+        <v>275.99099999999999</v>
       </c>
       <c r="U4">
-        <v>159.398</v>
+        <v>42.31</v>
       </c>
       <c r="V4">
-        <v>63.091999999999999</v>
+        <v>15.321999999999999</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-41.686999999999998</v>
+        <v>7.7</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-3.08</v>
       </c>
       <c r="AA4">
-        <v>48.656999999999996</v>
+        <v>9.9659999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>38.506999999999998</v>
+        <v>10.217000000000001</v>
       </c>
       <c r="D5">
-        <v>300.95400000000001</v>
+        <v>97.522000000000006</v>
       </c>
       <c r="E5">
-        <v>134.923</v>
+        <v>53.993000000000002</v>
       </c>
       <c r="F5">
-        <v>158.667</v>
+        <v>46.420999999999999</v>
       </c>
       <c r="G5">
-        <v>510.75200000000001</v>
+        <v>235.93199999999999</v>
       </c>
       <c r="H5">
-        <v>969.19899999999996</v>
+        <v>362.88400000000001</v>
       </c>
       <c r="I5">
-        <v>31.032</v>
+        <v>13.366</v>
       </c>
       <c r="J5">
-        <v>2.7349999999999999</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>8.5069999999999997</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>336.36900000000003</v>
+        <v>74.016999999999996</v>
       </c>
       <c r="O5">
-        <v>383.23099999999999</v>
+        <v>74.016999999999996</v>
       </c>
       <c r="P5">
-        <v>158.779</v>
+        <v>8.5069999999999997</v>
       </c>
       <c r="Q5">
-        <v>22.100999999999999</v>
+        <v>19.542000000000002</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>585.96799999999996</v>
+        <v>288.86700000000002</v>
       </c>
       <c r="U5">
-        <v>181.499</v>
+        <v>61.875</v>
       </c>
       <c r="V5">
-        <v>75.207999999999998</v>
+        <v>22.245000000000001</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-36.53</v>
+        <v>1.1890000000000001</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1.0509999999999999</v>
       </c>
       <c r="AA5">
-        <v>38.506999999999998</v>
+        <v>10.217000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>38.01</v>
+        <v>9.8279999999999994</v>
       </c>
       <c r="D6">
-        <v>307.20100000000002</v>
+        <v>95.132000000000005</v>
       </c>
       <c r="E6">
-        <v>141.27500000000001</v>
+        <v>50.771999999999998</v>
       </c>
       <c r="F6">
-        <v>158.881</v>
+        <v>43.531999999999996</v>
       </c>
       <c r="G6">
-        <v>524.22699999999998</v>
+        <v>235.57599999999999</v>
       </c>
       <c r="H6">
-        <v>1030.8140000000001</v>
+        <v>373.10700000000003</v>
       </c>
       <c r="I6">
-        <v>36.551000000000002</v>
+        <v>10.887</v>
       </c>
       <c r="J6">
-        <v>2.5009999999999999</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>436.87900000000002</v>
+        <v>71.376999999999995</v>
       </c>
       <c r="O6">
-        <v>491.221</v>
+        <v>71.376999999999995</v>
       </c>
       <c r="P6">
-        <v>247.83500000000001</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="Q6">
-        <v>2.3959999999999999</v>
+        <v>-2.371</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>5100</v>
+        <v>2170</v>
       </c>
       <c r="T6">
-        <v>539.59299999999996</v>
+        <v>301.73</v>
       </c>
       <c r="U6">
-        <v>183.89500000000001</v>
+        <v>59.67</v>
       </c>
       <c r="V6">
-        <v>57.182000000000002</v>
+        <v>15.756</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>4.01</v>
+        <v>3.34</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>-14.175000000000001</v>
       </c>
       <c r="AA6">
-        <v>38.01</v>
+        <v>9.8279999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>40.743000000000002</v>
+        <v>7.1849999999999996</v>
       </c>
       <c r="D7">
-        <v>322.67599999999999</v>
+        <v>96.551000000000002</v>
       </c>
       <c r="E7">
-        <v>160.98099999999999</v>
+        <v>51.683</v>
       </c>
       <c r="F7">
-        <v>174.774</v>
+        <v>43.061</v>
       </c>
       <c r="G7">
-        <v>544.86599999999999</v>
+        <v>253.15100000000001</v>
       </c>
       <c r="H7">
-        <v>1061.105</v>
+        <v>395.36399999999998</v>
       </c>
       <c r="I7">
-        <v>40.613999999999997</v>
+        <v>20.888000000000002</v>
       </c>
       <c r="J7">
-        <v>2.2629999999999999</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>8.3979999999999997</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-0.224</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>437.28399999999999</v>
+        <v>81.102000000000004</v>
       </c>
       <c r="O7">
-        <v>494.22399999999999</v>
+        <v>81.102000000000004</v>
       </c>
       <c r="P7">
-        <v>258.43599999999998</v>
+        <v>8.3979999999999997</v>
       </c>
       <c r="Q7">
-        <v>1.5960000000000001</v>
+        <v>14.811999999999999</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>566.88099999999997</v>
+        <v>314.262</v>
       </c>
       <c r="U7">
-        <v>185.49100000000001</v>
+        <v>74.233999999999995</v>
       </c>
       <c r="V7">
-        <v>15.183999999999999</v>
+        <v>24.454999999999998</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-6.5640000000000001</v>
+        <v>2.2679999999999998</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>-7.399</v>
       </c>
       <c r="AA7">
-        <v>40.743000000000002</v>
+        <v>7.1849999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>51.317</v>
+        <v>12.964</v>
       </c>
       <c r="D8">
-        <v>335.649</v>
+        <v>105.69</v>
       </c>
       <c r="E8">
-        <v>147.15899999999999</v>
+        <v>48.003999999999998</v>
       </c>
       <c r="F8">
-        <v>184.68899999999999</v>
+        <v>49.895000000000003</v>
       </c>
       <c r="G8">
-        <v>555.30700000000002</v>
+        <v>233.733</v>
       </c>
       <c r="H8">
-        <v>1067.317</v>
+        <v>375.54899999999998</v>
       </c>
       <c r="I8">
-        <v>29.706</v>
+        <v>7.9870000000000001</v>
       </c>
       <c r="J8">
-        <v>2.0209999999999999</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>419.15100000000001</v>
+        <v>70.25</v>
       </c>
       <c r="O8">
-        <v>477.37599999999998</v>
+        <v>70.25</v>
       </c>
       <c r="P8">
-        <v>249.24100000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Q8">
-        <v>16.321999999999999</v>
+        <v>-12.907999999999999</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>589.94100000000003</v>
+        <v>305.29899999999998</v>
       </c>
       <c r="U8">
-        <v>201.81299999999999</v>
+        <v>68.262</v>
       </c>
       <c r="V8">
-        <v>63.616</v>
+        <v>29.306000000000001</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-31.701000000000001</v>
+        <v>-33.914999999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>-4.9960000000000004</v>
       </c>
       <c r="AA8">
-        <v>51.317</v>
+        <v>12.964</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>42.853000000000002</v>
+        <v>12.483000000000001</v>
       </c>
       <c r="D9">
-        <v>315.47500000000002</v>
+        <v>104.53400000000001</v>
       </c>
       <c r="E9">
-        <v>141.374</v>
+        <v>47.610999999999997</v>
       </c>
       <c r="F9">
-        <v>170.63499999999999</v>
+        <v>50.76</v>
       </c>
       <c r="G9">
-        <v>570.774</v>
+        <v>270.22000000000003</v>
       </c>
       <c r="H9">
-        <v>1093.3510000000001</v>
+        <v>410.81400000000002</v>
       </c>
       <c r="I9">
-        <v>31.728000000000002</v>
+        <v>17.855</v>
       </c>
       <c r="J9">
-        <v>1.776</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>415.846</v>
+        <v>91.116</v>
       </c>
       <c r="O9">
-        <v>475.81599999999997</v>
+        <v>91.116</v>
       </c>
       <c r="P9">
-        <v>237.53399999999999</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="Q9">
-        <v>19.628</v>
+        <v>36.627000000000002</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>617.53499999999997</v>
+        <v>319.69799999999998</v>
       </c>
       <c r="U9">
-        <v>221.441</v>
+        <v>104.93899999999999</v>
       </c>
       <c r="V9">
-        <v>74.688000000000002</v>
+        <v>40.164999999999999</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-37.231000000000002</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="AA9">
-        <v>42.853000000000002</v>
+        <v>12.483000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>43.353999999999999</v>
+        <v>12.757</v>
       </c>
       <c r="D10">
-        <v>319.53800000000001</v>
+        <v>105.895</v>
       </c>
       <c r="E10">
-        <v>138.32400000000001</v>
+        <v>45.689</v>
       </c>
       <c r="F10">
-        <v>169.05</v>
+        <v>49.009</v>
       </c>
       <c r="G10">
-        <v>569.53700000000003</v>
+        <v>288.01400000000001</v>
       </c>
       <c r="H10">
-        <v>1103.6020000000001</v>
+        <v>417.42599999999999</v>
       </c>
       <c r="I10">
-        <v>35.287999999999997</v>
+        <v>9.4269999999999996</v>
       </c>
       <c r="J10">
-        <v>1.3939999999999999</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>406.33300000000003</v>
+        <v>70.274000000000001</v>
       </c>
       <c r="O10">
-        <v>467.34500000000003</v>
+        <v>76.453000000000003</v>
       </c>
       <c r="P10">
-        <v>214.501</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="Q10">
-        <v>2.5449999999999999</v>
+        <v>8.5909999999999993</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>5400</v>
+        <v>2181</v>
       </c>
       <c r="T10">
-        <v>636.25699999999995</v>
+        <v>340.97300000000001</v>
       </c>
       <c r="U10">
-        <v>223.98599999999999</v>
+        <v>113.788</v>
       </c>
       <c r="V10">
-        <v>68.92</v>
+        <v>9.327</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-49.847000000000001</v>
+        <v>5.3520000000000003</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-2.444</v>
       </c>
       <c r="AA10">
-        <v>43.353999999999999</v>
+        <v>12.757</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>44.86</v>
+        <v>12.061999999999999</v>
       </c>
       <c r="D11">
-        <v>332.10599999999999</v>
+        <v>109.247</v>
       </c>
       <c r="E11">
-        <v>158.988</v>
+        <v>51.582000000000001</v>
       </c>
       <c r="F11">
-        <v>183.97399999999999</v>
+        <v>51.462000000000003</v>
       </c>
       <c r="G11">
-        <v>594.39499999999998</v>
+        <v>317.70100000000002</v>
       </c>
       <c r="H11">
-        <v>1132.6379999999999</v>
+        <v>436.91800000000001</v>
       </c>
       <c r="I11">
-        <v>38.716000000000001</v>
+        <v>17.013000000000002</v>
       </c>
       <c r="J11">
-        <v>1.141</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-0.23799999999999999</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>439.577</v>
+        <v>77.811999999999998</v>
       </c>
       <c r="O11">
-        <v>501.34300000000002</v>
+        <v>83.566999999999993</v>
       </c>
       <c r="P11">
-        <v>264.86900000000003</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="Q11">
-        <v>4.3780000000000001</v>
+        <v>19.663</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>631.29499999999996</v>
+        <v>353.351</v>
       </c>
       <c r="U11">
-        <v>228.364</v>
+        <v>133.45099999999999</v>
       </c>
       <c r="V11">
-        <v>21.055</v>
+        <v>29.544</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>2.2519999999999998</v>
+        <v>-4.5119999999999996</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>-1.7709999999999999</v>
       </c>
       <c r="AA11">
-        <v>44.86</v>
+        <v>12.061999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>53.994</v>
+        <v>16.690000000000001</v>
       </c>
       <c r="D12">
-        <v>352.58300000000003</v>
+        <v>121.846</v>
       </c>
       <c r="E12">
-        <v>159.119</v>
+        <v>50.783000000000001</v>
       </c>
       <c r="F12">
-        <v>197.69800000000001</v>
+        <v>59.670999999999999</v>
       </c>
       <c r="G12">
-        <v>614.90200000000004</v>
+        <v>332.14400000000001</v>
       </c>
       <c r="H12">
-        <v>1164.0709999999999</v>
+        <v>465.90800000000002</v>
       </c>
       <c r="I12">
-        <v>37.584000000000003</v>
+        <v>20.93</v>
       </c>
       <c r="J12">
-        <v>0.88400000000000001</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>551.67100000000005</v>
+        <v>88.173000000000002</v>
       </c>
       <c r="O12">
-        <v>614.48</v>
+        <v>93.813999999999993</v>
       </c>
       <c r="P12">
-        <v>371.37700000000001</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="Q12">
-        <v>22.649000000000001</v>
+        <v>17.983000000000001</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>549.59100000000001</v>
+        <v>372.09399999999999</v>
       </c>
       <c r="U12">
-        <v>251.01300000000001</v>
+        <v>151.434</v>
       </c>
       <c r="V12">
-        <v>81.429000000000002</v>
+        <v>36.045999999999999</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-31.317</v>
+        <v>-4.3840000000000003</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>-8.4209999999999994</v>
       </c>
       <c r="AA12">
-        <v>53.994999999999997</v>
+        <v>16.690000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>45.688000000000002</v>
+        <v>15.973000000000001</v>
       </c>
       <c r="D13">
-        <v>338.29700000000003</v>
+        <v>120.06100000000001</v>
       </c>
       <c r="E13">
-        <v>151.56800000000001</v>
+        <v>50.671999999999997</v>
       </c>
       <c r="F13">
-        <v>185.78299999999999</v>
+        <v>59.09</v>
       </c>
       <c r="G13">
-        <v>625.22299999999996</v>
+        <v>357.358</v>
       </c>
       <c r="H13">
-        <v>1195.2380000000001</v>
+        <v>497.21899999999999</v>
       </c>
       <c r="I13">
-        <v>38.131</v>
+        <v>12.6</v>
       </c>
       <c r="J13">
-        <v>0.624</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>592.952</v>
+        <v>87.956999999999994</v>
       </c>
       <c r="O13">
-        <v>660.34299999999996</v>
+        <v>94.4</v>
       </c>
       <c r="P13">
-        <v>400.786</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="Q13">
-        <v>13.798</v>
+        <v>25.422999999999998</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>534.89499999999998</v>
+        <v>402.81900000000002</v>
       </c>
       <c r="U13">
-        <v>264.81099999999998</v>
+        <v>176.857</v>
       </c>
       <c r="V13">
-        <v>78.096999999999994</v>
+        <v>26.166</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-40.331000000000003</v>
+        <v>10.045999999999999</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>-5.407</v>
       </c>
       <c r="AA13">
-        <v>45.688000000000002</v>
+        <v>15.973000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>43.258000000000003</v>
+        <v>12.365</v>
       </c>
       <c r="D14">
-        <v>354.07299999999998</v>
+        <v>124.83799999999999</v>
       </c>
       <c r="E14">
-        <v>158.03800000000001</v>
+        <v>53.975999999999999</v>
       </c>
       <c r="F14">
-        <v>188.66499999999999</v>
+        <v>60.081000000000003</v>
       </c>
       <c r="G14">
-        <v>652.70600000000002</v>
+        <v>370.589</v>
       </c>
       <c r="H14">
-        <v>1230.5160000000001</v>
+        <v>521.875</v>
       </c>
       <c r="I14">
-        <v>29.940999999999999</v>
+        <v>19.16</v>
       </c>
       <c r="J14">
-        <v>150.35900000000001</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>478.35300000000001</v>
+        <v>100.345</v>
       </c>
       <c r="O14">
-        <v>712.30200000000002</v>
+        <v>108.583</v>
       </c>
       <c r="P14">
-        <v>430.21499999999997</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="Q14">
-        <v>14.247</v>
+        <v>-35.64</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>5700</v>
+        <v>2473</v>
       </c>
       <c r="T14">
-        <v>518.21400000000006</v>
+        <v>413.29199999999997</v>
       </c>
       <c r="U14">
-        <v>279.05799999999999</v>
+        <v>96.941999999999993</v>
       </c>
       <c r="V14">
-        <v>65.415000000000006</v>
+        <v>25.399000000000001</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-33.055</v>
+        <v>-6.3120000000000003</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>-50.213000000000001</v>
       </c>
       <c r="AA14">
-        <v>43.258000000000003</v>
+        <v>12.365</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>46.585000000000001</v>
+        <v>17.791</v>
       </c>
       <c r="D15">
-        <v>360.20299999999997</v>
+        <v>133.417</v>
       </c>
       <c r="E15">
-        <v>179.91900000000001</v>
+        <v>61.466000000000001</v>
       </c>
       <c r="F15">
-        <v>202.09700000000001</v>
+        <v>67.046000000000006</v>
       </c>
       <c r="G15">
-        <v>683.16600000000005</v>
+        <v>366.87799999999999</v>
       </c>
       <c r="H15">
-        <v>1262.3240000000001</v>
+        <v>523.08500000000004</v>
       </c>
       <c r="I15">
-        <v>42.793999999999997</v>
+        <v>14.848000000000001</v>
       </c>
       <c r="J15">
-        <v>150.09</v>
+        <v>0.5</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-0.253</v>
+        <v>-0.254</v>
       </c>
       <c r="N15">
-        <v>517.173</v>
+        <v>86.6</v>
       </c>
       <c r="O15">
-        <v>750.072</v>
+        <v>96.14</v>
       </c>
       <c r="P15">
-        <v>466.14</v>
+        <v>1.244</v>
       </c>
       <c r="Q15">
-        <v>7.1449999999999996</v>
+        <v>-12.182</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>512.25199999999995</v>
+        <v>426.94499999999999</v>
       </c>
       <c r="U15">
-        <v>286.20299999999997</v>
+        <v>180.51</v>
       </c>
       <c r="V15">
-        <v>33.518000000000001</v>
+        <v>10.667999999999999</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-14.96</v>
+        <v>-11.666</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>0.443</v>
       </c>
       <c r="AA15">
-        <v>46.585000000000001</v>
+        <v>17.791</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>57.218000000000004</v>
+        <v>23.91</v>
       </c>
       <c r="D16">
-        <v>390.12200000000001</v>
+        <v>137.37899999999999</v>
       </c>
       <c r="E16">
-        <v>168.64099999999999</v>
+        <v>59.287999999999997</v>
       </c>
       <c r="F16">
-        <v>218.518</v>
+        <v>72.001999999999995</v>
       </c>
       <c r="G16">
-        <v>701.70699999999999</v>
+        <v>371.24099999999999</v>
       </c>
       <c r="H16">
-        <v>1283.193</v>
+        <v>523.20100000000002</v>
       </c>
       <c r="I16">
-        <v>41.424999999999997</v>
+        <v>19.466999999999999</v>
       </c>
       <c r="J16">
-        <v>150</v>
+        <v>0.5</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>600.35199999999998</v>
+        <v>89.049000000000007</v>
       </c>
       <c r="O16">
-        <v>830.26300000000003</v>
+        <v>99.144000000000005</v>
       </c>
       <c r="P16">
-        <v>535.59799999999996</v>
+        <v>1.2150000000000001</v>
       </c>
       <c r="Q16">
-        <v>18.844999999999999</v>
+        <v>-11.465</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>452.93</v>
+        <v>424.05700000000002</v>
       </c>
       <c r="U16">
-        <v>305.048</v>
+        <v>164.65899999999999</v>
       </c>
       <c r="V16">
-        <v>81.762</v>
+        <v>33.228000000000002</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-54.548999999999999</v>
+        <v>-29.797999999999998</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>5.4</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="AA16">
-        <v>57.218000000000004</v>
+        <v>23.91</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>52.142000000000003</v>
+        <v>19.696000000000002</v>
       </c>
       <c r="D17">
-        <v>383.52300000000002</v>
+        <v>134.11099999999999</v>
       </c>
       <c r="E17">
-        <v>160.46700000000001</v>
+        <v>57.95</v>
       </c>
       <c r="F17">
-        <v>213.33600000000001</v>
+        <v>70.257999999999996</v>
       </c>
       <c r="G17">
-        <v>702.62099999999998</v>
+        <v>360.42</v>
       </c>
       <c r="H17">
-        <v>1290.6320000000001</v>
+        <v>512.404</v>
       </c>
       <c r="I17">
-        <v>58.255000000000003</v>
+        <v>18.786000000000001</v>
       </c>
       <c r="J17">
-        <v>350</v>
+        <v>0.5</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>630.26400000000001</v>
+        <v>93.977000000000004</v>
       </c>
       <c r="O17">
-        <v>1061.1610000000001</v>
+        <v>103.675</v>
       </c>
       <c r="P17">
-        <v>726.24199999999996</v>
+        <v>1.1739999999999999</v>
       </c>
       <c r="Q17">
-        <v>-12.313000000000001</v>
+        <v>13.539</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>229.471</v>
+        <v>408.72899999999998</v>
       </c>
       <c r="U17">
-        <v>292.73500000000001</v>
+        <v>146.53399999999999</v>
       </c>
       <c r="V17">
-        <v>93.263000000000005</v>
+        <v>24.311</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-76.268000000000001</v>
+        <v>-35.345999999999997</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>32.505000000000003</v>
       </c>
       <c r="AA17">
-        <v>52.142000000000003</v>
+        <v>19.696000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>25.960999999999999</v>
+        <v>16.934999999999999</v>
       </c>
       <c r="D18">
-        <v>351.959</v>
+        <v>144.274</v>
       </c>
       <c r="E18">
-        <v>152.38</v>
+        <v>65.638999999999996</v>
       </c>
       <c r="F18">
-        <v>182.16499999999999</v>
+        <v>70.710999999999999</v>
       </c>
       <c r="G18">
-        <v>759.39800000000002</v>
+        <v>301.59199999999998</v>
       </c>
       <c r="H18">
-        <v>1384.211</v>
+        <v>514.23699999999997</v>
       </c>
       <c r="I18">
-        <v>44.743000000000002</v>
+        <v>14.723000000000001</v>
       </c>
       <c r="J18">
-        <v>350</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.2909999999999999</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>820.90599999999995</v>
+        <v>99.951999999999998</v>
       </c>
       <c r="O18">
-        <v>1266.6220000000001</v>
+        <v>116.577</v>
       </c>
       <c r="P18">
-        <v>899</v>
+        <v>1.81</v>
       </c>
       <c r="Q18">
-        <v>29.800999999999998</v>
+        <v>-39.677999999999997</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>6400</v>
+        <v>2995</v>
       </c>
       <c r="T18">
-        <v>117.589</v>
+        <v>397.66</v>
       </c>
       <c r="U18">
-        <v>322.536</v>
+        <v>47.155999999999999</v>
       </c>
       <c r="V18">
-        <v>27.303000000000001</v>
+        <v>27.172000000000001</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>42.338999999999999</v>
+        <v>-33.360999999999997</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>18.248000000000001</v>
       </c>
       <c r="AA18">
-        <v>25.960999999999999</v>
+        <v>16.934999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>46.594000000000001</v>
+        <v>17.690000000000001</v>
       </c>
       <c r="D19">
-        <v>382.47699999999998</v>
+        <v>152.42599999999999</v>
       </c>
       <c r="E19">
-        <v>196.23099999999999</v>
+        <v>75.617000000000004</v>
       </c>
       <c r="F19">
-        <v>215.54400000000001</v>
+        <v>76.08</v>
       </c>
       <c r="G19">
-        <v>808.90899999999999</v>
+        <v>286.34399999999999</v>
       </c>
       <c r="H19">
-        <v>1431.0139999999999</v>
+        <v>487.91800000000001</v>
       </c>
       <c r="I19">
-        <v>44.183</v>
+        <v>12.957000000000001</v>
       </c>
       <c r="J19">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-1.2709999999999999</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>803.44500000000005</v>
+        <v>85.051000000000002</v>
       </c>
       <c r="O19">
-        <v>1396.9349999999999</v>
+        <v>100.473</v>
       </c>
       <c r="P19">
-        <v>1050.5509999999999</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="Q19">
-        <v>-140.376</v>
+        <v>-2.577</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>34.079000000000001</v>
+        <v>387.44499999999999</v>
       </c>
       <c r="U19">
-        <v>182.16</v>
+        <v>44.579000000000001</v>
       </c>
       <c r="V19">
-        <v>-14.644</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>36.801000000000002</v>
+        <v>-28.207999999999998</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-137.22</v>
+        <v>32.112000000000002</v>
       </c>
       <c r="AA19">
-        <v>46.594000000000001</v>
+        <v>17.690000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>56.911999999999999</v>
+        <v>19.933</v>
       </c>
       <c r="D20">
-        <v>413.34300000000002</v>
+        <v>160.63</v>
       </c>
       <c r="E20">
-        <v>199.44399999999999</v>
+        <v>73.138999999999996</v>
       </c>
       <c r="F20">
-        <v>232.75700000000001</v>
+        <v>80.575000000000003</v>
       </c>
       <c r="G20">
-        <v>833.03399999999999</v>
+        <v>307.33100000000002</v>
       </c>
       <c r="H20">
-        <v>1477.37</v>
+        <v>500.25</v>
       </c>
       <c r="I20">
-        <v>58.212000000000003</v>
+        <v>16.193000000000001</v>
       </c>
       <c r="J20">
-        <v>598.92499999999995</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>775.428</v>
+        <v>93.251000000000005</v>
       </c>
       <c r="O20">
-        <v>1468.819</v>
+        <v>108.021</v>
       </c>
       <c r="P20">
-        <v>1097.7950000000001</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="Q20">
-        <v>-19.007999999999999</v>
+        <v>7.7750000000000004</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>8.5510000000000002</v>
+        <v>392.22899999999998</v>
       </c>
       <c r="U20">
-        <v>163.15199999999999</v>
+        <v>52.353999999999999</v>
       </c>
       <c r="V20">
-        <v>80.165999999999997</v>
+        <v>37.802999999999997</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-33.531999999999996</v>
+        <v>-13.992000000000001</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-43.110999999999997</v>
+        <v>-8.5259999999999998</v>
       </c>
       <c r="AA20">
-        <v>56.911999999999999</v>
+        <v>19.933</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>44.222999999999999</v>
+        <v>20.603999999999999</v>
       </c>
       <c r="D21">
-        <v>406.387</v>
+        <v>158.06899999999999</v>
       </c>
       <c r="E21">
-        <v>190.904</v>
+        <v>68.097999999999999</v>
       </c>
       <c r="F21">
-        <v>224.274</v>
+        <v>81.328999999999994</v>
       </c>
       <c r="G21">
-        <v>833.39599999999996</v>
+        <v>299.67599999999999</v>
       </c>
       <c r="H21">
-        <v>1477.21</v>
+        <v>492.63</v>
       </c>
       <c r="I21">
-        <v>53.613999999999997</v>
+        <v>18.404</v>
       </c>
       <c r="J21">
-        <v>599.55600000000004</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>824.76599999999996</v>
+        <v>97.518000000000001</v>
       </c>
       <c r="O21">
-        <v>1516.0129999999999</v>
+        <v>111.866</v>
       </c>
       <c r="P21">
-        <v>1142.056</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="Q21">
-        <v>-22.001999999999999</v>
+        <v>5.4139999999999997</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>-38.802999999999997</v>
+        <v>380.76400000000001</v>
       </c>
       <c r="U21">
-        <v>141.15</v>
+        <v>57.768000000000001</v>
       </c>
       <c r="V21">
-        <v>76.945999999999998</v>
+        <v>38.42</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-39.662999999999997</v>
+        <v>-33.715000000000003</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-26.344999999999999</v>
+        <v>12.489000000000001</v>
       </c>
       <c r="AA21">
-        <v>44.222999999999999</v>
+        <v>20.603999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>44.348999999999997</v>
+        <v>20.027000000000001</v>
       </c>
       <c r="D22">
-        <v>399.685</v>
+        <v>166.97</v>
       </c>
       <c r="E22">
-        <v>188.31800000000001</v>
+        <v>71.688000000000002</v>
       </c>
       <c r="F22">
-        <v>217.69499999999999</v>
+        <v>85.116</v>
       </c>
       <c r="G22">
-        <v>821.63400000000001</v>
+        <v>299.245</v>
       </c>
       <c r="H22">
-        <v>1474.9929999999999</v>
+        <v>490.67599999999999</v>
       </c>
       <c r="I22">
-        <v>52.648000000000003</v>
+        <v>19.841999999999999</v>
       </c>
       <c r="J22">
-        <v>597.08500000000004</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>856.76099999999997</v>
+        <v>106.566</v>
       </c>
       <c r="O22">
-        <v>1558.9880000000001</v>
+        <v>121.366</v>
       </c>
       <c r="P22">
-        <v>1170.085</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="Q22">
-        <v>-12.156000000000001</v>
+        <v>9.3829999999999991</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>6800</v>
+        <v>3300</v>
       </c>
       <c r="T22">
-        <v>-83.995000000000005</v>
+        <v>369.31</v>
       </c>
       <c r="U22">
-        <v>128.994</v>
+        <v>67.150999999999996</v>
       </c>
       <c r="V22">
-        <v>73.896000000000001</v>
+        <v>40.046999999999997</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-59.158000000000001</v>
+        <v>-31.07</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-8.5069999999999997</v>
+        <v>8.1859999999999999</v>
       </c>
       <c r="AA22">
-        <v>44.348999999999997</v>
+        <v>20.027000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>46.018999999999998</v>
+        <v>18.273</v>
       </c>
       <c r="D23">
-        <v>417.55</v>
+        <v>168.16399999999999</v>
       </c>
       <c r="E23">
-        <v>212.072</v>
+        <v>81.915999999999997</v>
       </c>
       <c r="F23">
-        <v>227.53700000000001</v>
+        <v>86.025000000000006</v>
       </c>
       <c r="G23">
-        <v>809.00599999999997</v>
+        <v>280.959</v>
       </c>
       <c r="H23">
-        <v>1478.6469999999999</v>
+        <v>475.24200000000002</v>
       </c>
       <c r="I23">
-        <v>52.457999999999998</v>
+        <v>25.033999999999999</v>
       </c>
       <c r="J23">
-        <v>600.02099999999996</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,84 +2632,84 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-0.55100000000000005</v>
       </c>
       <c r="N23">
-        <v>878.66800000000001</v>
+        <v>98.367999999999995</v>
       </c>
       <c r="O23">
-        <v>1552.434</v>
+        <v>112.18300000000001</v>
       </c>
       <c r="P23">
-        <v>1222.021</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>3.9590000000000001</v>
+        <v>-31.812000000000001</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>-73.787000000000006</v>
+        <v>363.05900000000003</v>
       </c>
       <c r="U23">
-        <v>132.953</v>
+        <v>35.338999999999999</v>
       </c>
       <c r="V23">
-        <v>26.99</v>
+        <v>-3.0230000000000001</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-2.5619999999999998</v>
+        <v>-28.57</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-1.893</v>
+        <v>7.9539999999999997</v>
       </c>
       <c r="AA23">
-        <v>46.018999999999998</v>
+        <v>18.273</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>67.201999999999998</v>
+        <v>25.78</v>
       </c>
       <c r="D24">
-        <v>466.56900000000002</v>
+        <v>191.364</v>
       </c>
       <c r="E24">
-        <v>212.22900000000001</v>
+        <v>84.472999999999999</v>
       </c>
       <c r="F24">
-        <v>260.54300000000001</v>
+        <v>99.036000000000001</v>
       </c>
       <c r="G24">
-        <v>821.11</v>
+        <v>271.79399999999998</v>
       </c>
       <c r="H24">
-        <v>1489.241</v>
+        <v>501.37799999999999</v>
       </c>
       <c r="I24">
-        <v>50.085000000000001</v>
+        <v>24.24</v>
       </c>
       <c r="J24">
-        <v>597.95799999999997</v>
+        <v>6.7949999999999999</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>822.77599999999995</v>
+        <v>123.321</v>
       </c>
       <c r="O24">
-        <v>1497.739</v>
+        <v>144.34399999999999</v>
       </c>
       <c r="P24">
-        <v>1155.9580000000001</v>
+        <v>7.45</v>
       </c>
       <c r="Q24">
-        <v>8.1859999999999999</v>
+        <v>14.683999999999999</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>-8.4979999999999993</v>
+        <v>357.03399999999999</v>
       </c>
       <c r="U24">
-        <v>141.13900000000001</v>
+        <v>50.023000000000003</v>
       </c>
       <c r="V24">
-        <v>110.883</v>
+        <v>47.811</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-73.135000000000005</v>
+        <v>-38.125</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-13.801</v>
+        <v>30.655000000000001</v>
       </c>
       <c r="AA24">
-        <v>67.201999999999998</v>
+        <v>25.78</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>56.454999999999998</v>
+        <v>24.952999999999999</v>
       </c>
       <c r="D25">
-        <v>448.30799999999999</v>
+        <v>187.38</v>
       </c>
       <c r="E25">
-        <v>204.70099999999999</v>
+        <v>79.301000000000002</v>
       </c>
       <c r="F25">
-        <v>246.73</v>
+        <v>98.198999999999998</v>
       </c>
       <c r="G25">
-        <v>828.1</v>
+        <v>291.89400000000001</v>
       </c>
       <c r="H25">
-        <v>1500.37</v>
+        <v>524.97199999999998</v>
       </c>
       <c r="I25">
-        <v>44.127000000000002</v>
+        <v>23.193000000000001</v>
       </c>
       <c r="J25">
-        <v>599.13699999999994</v>
+        <v>6.625</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>760.20799999999997</v>
+        <v>116.732</v>
       </c>
       <c r="O25">
-        <v>1445.384</v>
+        <v>137.387</v>
       </c>
       <c r="P25">
-        <v>1087.1369999999999</v>
+        <v>7.29</v>
       </c>
       <c r="Q25">
-        <v>8.9329999999999998</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>54.985999999999997</v>
+        <v>387.58499999999998</v>
       </c>
       <c r="U25">
-        <v>150.072</v>
+        <v>50.95</v>
       </c>
       <c r="V25">
-        <v>100.315</v>
+        <v>26.623999999999999</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-69.247</v>
+        <v>-0.25900000000000001</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-10.858000000000001</v>
+        <v>-16.594999999999999</v>
       </c>
       <c r="AA25">
-        <v>56.454999999999998</v>
+        <v>24.952999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>52.369</v>
+        <v>24.672000000000001</v>
       </c>
       <c r="D26">
-        <v>442.99599999999998</v>
+        <v>192.209</v>
       </c>
       <c r="E26">
-        <v>204.494</v>
+        <v>81.388999999999996</v>
       </c>
       <c r="F26">
-        <v>240.626</v>
+        <v>96.269000000000005</v>
       </c>
       <c r="G26">
-        <v>845.58399999999995</v>
+        <v>302.26299999999998</v>
       </c>
       <c r="H26">
-        <v>1530.704</v>
+        <v>559.55999999999995</v>
       </c>
       <c r="I26">
-        <v>60.057000000000002</v>
+        <v>24.373999999999999</v>
       </c>
       <c r="J26">
-        <v>593.11</v>
+        <v>6.4470000000000001</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>934.56799999999998</v>
+        <v>124.74299999999999</v>
       </c>
       <c r="O26">
-        <v>1638.9169999999999</v>
+        <v>149.69900000000001</v>
       </c>
       <c r="P26">
-        <v>1204.1099999999999</v>
+        <v>7.125</v>
       </c>
       <c r="Q26">
-        <v>4.8289999999999997</v>
+        <v>10.715999999999999</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>7365</v>
+        <v>3900</v>
       </c>
       <c r="T26">
-        <v>-108.21299999999999</v>
+        <v>409.86099999999999</v>
       </c>
       <c r="U26">
-        <v>154.90100000000001</v>
+        <v>61.665999999999997</v>
       </c>
       <c r="V26">
-        <v>100.755</v>
+        <v>38.414000000000001</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-77.251999999999995</v>
+        <v>-9.3049999999999997</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>2.5169999999999999</v>
+        <v>8.641</v>
       </c>
       <c r="AA26">
-        <v>52.369</v>
+        <v>24.672000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>69.019000000000005</v>
+        <v>21.027000000000001</v>
       </c>
       <c r="D27">
-        <v>462.02100000000002</v>
+        <v>211.155</v>
       </c>
       <c r="E27">
-        <v>225.35300000000001</v>
+        <v>104.791</v>
       </c>
       <c r="F27">
-        <v>258.19099999999997</v>
+        <v>108.57899999999999</v>
       </c>
       <c r="G27">
-        <v>878.58799999999997</v>
+        <v>296.75599999999997</v>
       </c>
       <c r="H27">
-        <v>1572.0909999999999</v>
+        <v>646.49400000000003</v>
       </c>
       <c r="I27">
-        <v>62.249000000000002</v>
+        <v>27.315999999999999</v>
       </c>
       <c r="J27">
-        <v>594.86800000000005</v>
+        <v>6.2709999999999999</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>74.590999999999994</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>-1.323</v>
       </c>
       <c r="N27">
-        <v>936.077</v>
+        <v>188.41499999999999</v>
       </c>
       <c r="O27">
-        <v>1646.0029999999999</v>
+        <v>234.41</v>
       </c>
       <c r="P27">
-        <v>1265.8679999999999</v>
+        <v>82.174999999999997</v>
       </c>
       <c r="Q27">
-        <v>5.5069999999999997</v>
+        <v>-7.7290000000000001</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>-73.912000000000006</v>
+        <v>412.084</v>
       </c>
       <c r="U27">
-        <v>160.40799999999999</v>
+        <v>53.936999999999998</v>
       </c>
       <c r="V27">
-        <v>31.274000000000001</v>
+        <v>-1.79</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>1.3129999999999999</v>
+        <v>49.692</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-3.016</v>
+        <v>35</v>
       </c>
       <c r="AA27">
-        <v>69.019000000000005</v>
+        <v>21.027000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>85.356999999999999</v>
+        <v>21.664000000000001</v>
       </c>
       <c r="D28">
-        <v>508.94</v>
+        <v>237.04599999999999</v>
       </c>
       <c r="E28">
-        <v>240.262</v>
+        <v>106.684</v>
       </c>
       <c r="F28">
-        <v>292.71499999999997</v>
+        <v>115.221</v>
       </c>
       <c r="G28">
-        <v>918.65800000000002</v>
+        <v>282.46800000000002</v>
       </c>
       <c r="H28">
-        <v>1637.1369999999999</v>
+        <v>646.16899999999998</v>
       </c>
       <c r="I28">
-        <v>58.606000000000002</v>
+        <v>28.366</v>
       </c>
       <c r="J28">
-        <v>600.89099999999996</v>
+        <v>6.0919999999999996</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>83.748000000000005</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1001.4930000000001</v>
+        <v>213.56899999999999</v>
       </c>
       <c r="O28">
-        <v>1723.2439999999999</v>
+        <v>261.61700000000002</v>
       </c>
       <c r="P28">
-        <v>1304.8910000000001</v>
+        <v>90.539000000000001</v>
       </c>
       <c r="Q28">
-        <v>5.5670000000000002</v>
+        <v>-4.3490000000000002</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>-86.106999999999999</v>
+        <v>384.55200000000002</v>
       </c>
       <c r="U28">
-        <v>165.97499999999999</v>
+        <v>49.588000000000001</v>
       </c>
       <c r="V28">
-        <v>110.19199999999999</v>
+        <v>64.507000000000005</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-63.4</v>
+        <v>-47.965000000000003</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-16.603000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>85.356999999999999</v>
+        <v>21.664000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>70.510999999999996</v>
+        <v>25.795000000000002</v>
       </c>
       <c r="D29">
-        <v>491.976</v>
+        <v>229.38499999999999</v>
       </c>
       <c r="E29">
-        <v>228.15899999999999</v>
+        <v>103.407</v>
       </c>
       <c r="F29">
-        <v>274.00200000000001</v>
+        <v>118.47799999999999</v>
       </c>
       <c r="G29">
-        <v>942.72199999999998</v>
+        <v>293.74900000000002</v>
       </c>
       <c r="H29">
-        <v>1669.3340000000001</v>
+        <v>674.23299999999995</v>
       </c>
       <c r="I29">
-        <v>60.582999999999998</v>
+        <v>21.786000000000001</v>
       </c>
       <c r="J29">
-        <v>604.149</v>
+        <v>5.9109999999999996</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>77.28</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>996.54300000000001</v>
+        <v>209.17</v>
       </c>
       <c r="O29">
-        <v>1717.7249999999999</v>
+        <v>254.09299999999999</v>
       </c>
       <c r="P29">
-        <v>1290.3989999999999</v>
+        <v>83.900999999999996</v>
       </c>
       <c r="Q29">
-        <v>3.044</v>
+        <v>8.9190000000000005</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>-48.390999999999998</v>
+        <v>420.14</v>
       </c>
       <c r="U29">
-        <v>169.01900000000001</v>
+        <v>58.506999999999998</v>
       </c>
       <c r="V29">
-        <v>110.684</v>
+        <v>32.033000000000001</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-67.870999999999995</v>
+        <v>-6.95</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-25.363</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>70.510999999999996</v>
+        <v>25.795000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>38.256999999999998</v>
+        <v>25.527999999999999</v>
       </c>
       <c r="D30">
-        <v>506.12099999999998</v>
+        <v>244.96899999999999</v>
       </c>
       <c r="E30">
-        <v>234.59700000000001</v>
+        <v>108.384</v>
       </c>
       <c r="F30">
-        <v>272.47399999999999</v>
+        <v>122.244</v>
       </c>
       <c r="G30">
-        <v>971.98500000000001</v>
+        <v>305.66300000000001</v>
       </c>
       <c r="H30">
-        <v>1713.4159999999999</v>
+        <v>702.17899999999997</v>
       </c>
       <c r="I30">
-        <v>66.968000000000004</v>
+        <v>32.51</v>
       </c>
       <c r="J30">
-        <v>606.07500000000005</v>
+        <v>5.7270000000000003</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>72.236000000000004</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1004.567</v>
+        <v>223.392</v>
       </c>
       <c r="O30">
-        <v>1767.258</v>
+        <v>263.85599999999999</v>
       </c>
       <c r="P30">
-        <v>1261.075</v>
+        <v>78.683000000000007</v>
       </c>
       <c r="Q30">
-        <v>18.655999999999999</v>
+        <v>1.853</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>7600</v>
+        <v>4700</v>
       </c>
       <c r="T30">
-        <v>-53.841999999999999</v>
+        <v>438.32299999999998</v>
       </c>
       <c r="U30">
-        <v>187.67500000000001</v>
+        <v>60.36</v>
       </c>
       <c r="V30">
-        <v>121.126</v>
+        <v>40.374000000000002</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-78.058000000000007</v>
+        <v>-12.964</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-2.423</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>38.256999999999998</v>
+        <v>25.527999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>89.450999999999993</v>
+        <v>27.550999999999998</v>
       </c>
       <c r="D31">
-        <v>537.65599999999995</v>
+        <v>249.07400000000001</v>
       </c>
       <c r="E31">
-        <v>264.95</v>
+        <v>125.245</v>
       </c>
       <c r="F31">
-        <v>303.09899999999999</v>
+        <v>129.83600000000001</v>
       </c>
       <c r="G31">
-        <v>701.70699999999999</v>
+        <v>322.36599999999999</v>
       </c>
       <c r="H31">
-        <v>1469.492</v>
+        <v>736.85699999999997</v>
       </c>
       <c r="I31">
-        <v>70.409000000000006</v>
+        <v>25.300999999999998</v>
       </c>
       <c r="J31">
-        <v>609.005</v>
+        <v>5.54</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>139.95099999999999</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-247.5</v>
+        <v>-0.17699999999999999</v>
       </c>
       <c r="N31">
-        <v>728.83799999999997</v>
+        <v>265.02600000000001</v>
       </c>
       <c r="O31">
-        <v>1518.4739999999999</v>
+        <v>303.221</v>
       </c>
       <c r="P31">
-        <v>1016.505</v>
+        <v>146.22200000000001</v>
       </c>
       <c r="Q31">
-        <v>-28.446000000000002</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>-48.981999999999999</v>
+        <v>433.63600000000002</v>
       </c>
       <c r="U31">
-        <v>159.22900000000001</v>
+        <v>60.22</v>
       </c>
       <c r="V31">
-        <v>34.898000000000003</v>
+        <v>-2.7890000000000001</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-324.99099999999999</v>
+        <v>24.768000000000001</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>284.03800000000001</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>89.450999999999993</v>
+        <v>27.550999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>108.691</v>
+        <v>39.363999999999997</v>
       </c>
       <c r="D32">
-        <v>580.75199999999995</v>
+        <v>280.57</v>
       </c>
       <c r="E32">
-        <v>271.57</v>
+        <v>120.565</v>
       </c>
       <c r="F32">
-        <v>332.43900000000002</v>
+        <v>151.26</v>
       </c>
       <c r="G32">
-        <v>739.83199999999999</v>
+        <v>339.06400000000002</v>
       </c>
       <c r="H32">
-        <v>1520.6849999999999</v>
+        <v>764.88900000000001</v>
       </c>
       <c r="I32">
-        <v>68.015000000000001</v>
+        <v>25.356999999999999</v>
       </c>
       <c r="J32">
-        <v>603.13</v>
+        <v>5.35</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>157.97300000000001</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>774.31600000000003</v>
+        <v>299.05200000000002</v>
       </c>
       <c r="O32">
-        <v>1561.5340000000001</v>
+        <v>336.428</v>
       </c>
       <c r="P32">
-        <v>1040.1300000000001</v>
+        <v>164.065</v>
       </c>
       <c r="Q32">
-        <v>15.33</v>
+        <v>15.045</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>-40.848999999999997</v>
+        <v>428.46100000000001</v>
       </c>
       <c r="U32">
-        <v>174.559</v>
+        <v>75.265000000000001</v>
       </c>
       <c r="V32">
-        <v>118.83</v>
+        <v>70.929000000000002</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-70.707999999999998</v>
+        <v>-29.135999999999999</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,42 +3421,42 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>108.691</v>
+        <v>39.363999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>93.251000000000005</v>
+        <v>25.699000000000002</v>
       </c>
       <c r="D33">
-        <v>545.44799999999998</v>
+        <v>251.09299999999999</v>
       </c>
       <c r="E33">
-        <v>271.92</v>
+        <v>112.053</v>
       </c>
       <c r="F33">
-        <v>305.64299999999997</v>
+        <v>128.149</v>
       </c>
       <c r="G33">
-        <v>704.197</v>
+        <v>353.37700000000001</v>
       </c>
       <c r="H33">
-        <v>1544.53</v>
+        <v>778.69299999999998</v>
       </c>
       <c r="I33">
-        <v>65.456999999999994</v>
+        <v>28.937000000000001</v>
       </c>
       <c r="J33">
-        <v>602.41600000000005</v>
+        <v>5.157</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>163.94200000000001</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>759.53700000000003</v>
+        <v>307.75</v>
       </c>
       <c r="O33">
-        <v>1545.893</v>
+        <v>341.36599999999999</v>
       </c>
       <c r="P33">
-        <v>1016.9160000000001</v>
+        <v>169.85300000000001</v>
       </c>
       <c r="Q33">
-        <v>-27.681999999999999</v>
+        <v>9.3209999999999997</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>-1.363</v>
+        <v>437.327</v>
       </c>
       <c r="U33">
-        <v>146.87700000000001</v>
+        <v>84.585999999999999</v>
       </c>
       <c r="V33">
-        <v>110.708</v>
+        <v>41.673999999999999</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-84.293999999999997</v>
+        <v>-5.742</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,42 +3504,42 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>93.251000000000005</v>
+        <v>25.699000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>85.638000000000005</v>
+        <v>23.555</v>
       </c>
       <c r="D34">
-        <v>549.38599999999997</v>
+        <v>243.29300000000001</v>
       </c>
       <c r="E34">
-        <v>258.52499999999998</v>
+        <v>111.498</v>
       </c>
       <c r="F34">
-        <v>300.36099999999999</v>
+        <v>120.521</v>
       </c>
       <c r="G34">
-        <v>654.17200000000003</v>
+        <v>355.89</v>
       </c>
       <c r="H34">
-        <v>1537.3489999999999</v>
+        <v>765.43700000000001</v>
       </c>
       <c r="I34">
-        <v>69.534000000000006</v>
+        <v>28.006</v>
       </c>
       <c r="J34">
-        <v>601.34799999999996</v>
+        <v>5.0940000000000003</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>150.62</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,37 +3548,37 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>770.44399999999996</v>
+        <v>295.29199999999997</v>
       </c>
       <c r="O34">
-        <v>1546.5820000000001</v>
+        <v>327.24299999999999</v>
       </c>
       <c r="P34">
-        <v>1000.285</v>
+        <v>156.47900000000001</v>
       </c>
       <c r="Q34">
-        <v>-23.082999999999998</v>
+        <v>-5.718</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>8377</v>
+        <v>4700</v>
       </c>
       <c r="T34">
-        <v>-9.2330000000000005</v>
+        <v>438.19400000000002</v>
       </c>
       <c r="U34">
-        <v>123.794</v>
+        <v>78.867999999999995</v>
       </c>
       <c r="V34">
-        <v>135.648</v>
+        <v>33.494</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-117.806</v>
+        <v>-20.68</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,122 +3587,122 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>85.638000000000005</v>
+        <v>23.555</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>102.681</v>
+        <v>26.071000000000002</v>
       </c>
       <c r="D35">
-        <v>576.05600000000004</v>
+        <v>236.45500000000001</v>
       </c>
       <c r="E35">
-        <v>292.82799999999997</v>
+        <v>115.253</v>
       </c>
       <c r="F35">
-        <v>331.59699999999998</v>
+        <v>124.43300000000001</v>
       </c>
       <c r="G35">
-        <v>697.64599999999996</v>
+        <v>367.78300000000002</v>
       </c>
       <c r="H35">
-        <v>1680.9680000000001</v>
+        <v>770.50400000000002</v>
       </c>
       <c r="I35">
-        <v>70.143000000000001</v>
+        <v>23.541</v>
       </c>
       <c r="J35">
-        <v>699.33399999999995</v>
+        <v>4.8959999999999999</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>165.85499999999999</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-52.024000000000001</v>
+        <v>-0.19</v>
       </c>
       <c r="N35">
-        <v>689.61900000000003</v>
+        <v>292.14299999999997</v>
       </c>
       <c r="O35">
-        <v>1629.098</v>
+        <v>324.67599999999999</v>
       </c>
       <c r="P35">
-        <v>1129.4390000000001</v>
+        <v>171.52799999999999</v>
       </c>
       <c r="Q35">
-        <v>-7.1779999999999999</v>
+        <v>7.4269999999999996</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>51.87</v>
+        <v>445.82799999999997</v>
       </c>
       <c r="U35">
-        <v>116.616</v>
+        <v>86.295000000000002</v>
       </c>
       <c r="V35">
-        <v>34.378</v>
+        <v>12.624000000000001</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-2.7810000000000001</v>
+        <v>3.2850000000000001</v>
       </c>
       <c r="Y35">
-        <v>69.174999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>102.681</v>
+        <v>26.071000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>125.706</v>
+        <v>33.667000000000002</v>
       </c>
       <c r="D36">
-        <v>620.10299999999995</v>
+        <v>265.72300000000001</v>
       </c>
       <c r="E36">
-        <v>299.16199999999998</v>
+        <v>118.782</v>
       </c>
       <c r="F36">
-        <v>357.85300000000001</v>
+        <v>138.44</v>
       </c>
       <c r="G36">
-        <v>712.298</v>
+        <v>384.33699999999999</v>
       </c>
       <c r="H36">
-        <v>1724.2370000000001</v>
+        <v>798.51</v>
       </c>
       <c r="I36">
-        <v>67.605999999999995</v>
+        <v>26.472000000000001</v>
       </c>
       <c r="J36">
-        <v>700.55200000000002</v>
+        <v>84.694000000000003</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>618.90899999999999</v>
+        <v>213.11</v>
       </c>
       <c r="O36">
-        <v>1552.6880000000001</v>
+        <v>327.93599999999998</v>
       </c>
       <c r="P36">
-        <v>1036.414</v>
+        <v>160.28</v>
       </c>
       <c r="Q36">
-        <v>-5.7709999999999999</v>
+        <v>17.449000000000002</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>171.54900000000001</v>
+        <v>470.57400000000001</v>
       </c>
       <c r="U36">
-        <v>110.845</v>
+        <v>103.744</v>
       </c>
       <c r="V36">
-        <v>137.102</v>
+        <v>58.256999999999998</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-109.488</v>
+        <v>-31.420999999999999</v>
       </c>
       <c r="Y36">
-        <v>69.331000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>125.706</v>
+        <v>33.667000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>108.837</v>
+        <v>31.536000000000001</v>
       </c>
       <c r="D37">
-        <v>605.303</v>
+        <v>259.12</v>
       </c>
       <c r="E37">
-        <v>283.53699999999998</v>
+        <v>115.14100000000001</v>
       </c>
       <c r="F37">
-        <v>344.95</v>
+        <v>130.477</v>
       </c>
       <c r="G37">
-        <v>703.38199999999995</v>
+        <v>385.72699999999998</v>
       </c>
       <c r="H37">
-        <v>1751.481</v>
+        <v>814.88900000000001</v>
       </c>
       <c r="I37">
-        <v>75.515000000000001</v>
+        <v>21.465</v>
       </c>
       <c r="J37">
-        <v>696.63400000000001</v>
+        <v>84.489000000000004</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>626.62699999999995</v>
+        <v>198.56299999999999</v>
       </c>
       <c r="O37">
-        <v>1548.759</v>
+        <v>315.255</v>
       </c>
       <c r="P37">
-        <v>1007.422</v>
+        <v>148.20599999999999</v>
       </c>
       <c r="Q37">
-        <v>-6.8490000000000002</v>
+        <v>2.984</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>202.72200000000001</v>
+        <v>499.63400000000001</v>
       </c>
       <c r="U37">
-        <v>103.996</v>
+        <v>106.72799999999999</v>
       </c>
       <c r="V37">
-        <v>132.26499999999999</v>
+        <v>44.622</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-99.751000000000005</v>
+        <v>-22.404</v>
       </c>
       <c r="Y37">
-        <v>66.486000000000004</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>108.837</v>
+        <v>31.536000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>90.495999999999995</v>
+        <v>30.951000000000001</v>
       </c>
       <c r="D38">
-        <v>605.44600000000003</v>
+        <v>270.33499999999998</v>
       </c>
       <c r="E38">
-        <v>286.971</v>
+        <v>115.107</v>
       </c>
       <c r="F38">
-        <v>331.149</v>
+        <v>132.93100000000001</v>
       </c>
       <c r="G38">
-        <v>679.63900000000001</v>
+        <v>376.33800000000002</v>
       </c>
       <c r="H38">
-        <v>1832.4749999999999</v>
+        <v>808.52700000000004</v>
       </c>
       <c r="I38">
-        <v>72.171999999999997</v>
+        <v>19.132999999999999</v>
       </c>
       <c r="J38">
-        <v>698.91</v>
+        <v>4.2809999999999997</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,161 +3880,161 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>725.33699999999999</v>
+        <v>256.30500000000001</v>
       </c>
       <c r="O38">
-        <v>1654.65</v>
+        <v>293.94799999999998</v>
       </c>
       <c r="P38">
-        <v>1070.4280000000001</v>
+        <v>123.884</v>
       </c>
       <c r="Q38">
-        <v>-13.67</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>9200</v>
+        <v>4800</v>
       </c>
       <c r="T38">
-        <v>177.82499999999999</v>
+        <v>514.57899999999995</v>
       </c>
       <c r="U38">
-        <v>90.325999999999993</v>
+        <v>106.72799999999999</v>
       </c>
       <c r="V38">
-        <v>155.41300000000001</v>
+        <v>59.448999999999998</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-74.388999999999996</v>
+        <v>-44.755000000000003</v>
       </c>
       <c r="Y38">
-        <v>67.471999999999994</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>90.495999999999995</v>
+        <v>30.951000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>111.827</v>
+        <v>33.026000000000003</v>
       </c>
       <c r="D39">
-        <v>626.33600000000001</v>
+        <v>268.52499999999998</v>
       </c>
       <c r="E39">
-        <v>318.65300000000002</v>
+        <v>130.51900000000001</v>
       </c>
       <c r="F39">
-        <v>359.59</v>
+        <v>142.36099999999999</v>
       </c>
       <c r="G39">
-        <v>721.351</v>
+        <v>398.36900000000003</v>
       </c>
       <c r="H39">
-        <v>1886.2449999999999</v>
+        <v>824.28399999999999</v>
       </c>
       <c r="I39">
-        <v>74.209999999999994</v>
+        <v>24.103999999999999</v>
       </c>
       <c r="J39">
-        <v>697.36300000000006</v>
+        <v>4.07</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1.5149999999999999</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="N39">
-        <v>846.24099999999999</v>
+        <v>289.16699999999997</v>
       </c>
       <c r="O39">
-        <v>1778.19</v>
+        <v>327.15199999999999</v>
       </c>
       <c r="P39">
-        <v>1265.107</v>
+        <v>163.798</v>
       </c>
       <c r="Q39">
-        <v>-8.9309999999999992</v>
+        <v>-0.374</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>108.05500000000001</v>
+        <v>497.13200000000001</v>
       </c>
       <c r="U39">
-        <v>81.394999999999996</v>
+        <v>106.354</v>
       </c>
       <c r="V39">
-        <v>27.870999999999999</v>
+        <v>19.204999999999998</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>16.901</v>
+        <v>-9.6039999999999992</v>
       </c>
       <c r="Y39">
-        <v>65.427000000000007</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>111.827</v>
+        <v>33.026000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>148.94</v>
+        <v>37.192999999999998</v>
       </c>
       <c r="D40">
-        <v>637.59199999999998</v>
+        <v>281.48200000000003</v>
       </c>
       <c r="E40">
-        <v>339.18</v>
+        <v>127.13800000000001</v>
       </c>
       <c r="F40">
-        <v>379.34199999999998</v>
+        <v>149.28399999999999</v>
       </c>
       <c r="G40">
-        <v>779.61199999999997</v>
+        <v>410.55200000000002</v>
       </c>
       <c r="H40">
-        <v>1960.713</v>
+        <v>833.73500000000001</v>
       </c>
       <c r="I40">
-        <v>73.903000000000006</v>
+        <v>23.19</v>
       </c>
       <c r="J40">
-        <v>899.56200000000001</v>
+        <v>3.8559999999999999</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>540.58399999999995</v>
+        <v>271.2</v>
       </c>
       <c r="O40">
-        <v>1687.3130000000001</v>
+        <v>309.45800000000003</v>
       </c>
       <c r="P40">
-        <v>1106.2929999999999</v>
+        <v>140.37299999999999</v>
       </c>
       <c r="Q40">
-        <v>23.898</v>
+        <v>11.621</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>273.39999999999998</v>
+        <v>524.27700000000004</v>
       </c>
       <c r="U40">
-        <v>105.29300000000001</v>
+        <v>117.97499999999999</v>
       </c>
       <c r="V40">
-        <v>208.142</v>
+        <v>55.88</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-161.53100000000001</v>
+        <v>-33.603000000000002</v>
       </c>
       <c r="Y40">
-        <v>68.662000000000006</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>148.94</v>
+        <v>37.192999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>146.21899999999999</v>
+        <v>34.694000000000003</v>
       </c>
       <c r="D41">
-        <v>721.78899999999999</v>
+        <v>269.62799999999999</v>
       </c>
       <c r="E41">
-        <v>357.95400000000001</v>
+        <v>120.45399999999999</v>
       </c>
       <c r="F41">
-        <v>422.60599999999999</v>
+        <v>142.20699999999999</v>
       </c>
       <c r="G41">
-        <v>868.67899999999997</v>
+        <v>429.911</v>
       </c>
       <c r="H41">
-        <v>2047.4069999999999</v>
+        <v>862.29700000000003</v>
       </c>
       <c r="I41">
-        <v>71.933000000000007</v>
+        <v>25.273</v>
       </c>
       <c r="J41">
-        <v>853.31600000000003</v>
+        <v>3.6389999999999998</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>526.84100000000001</v>
+        <v>270.93299999999999</v>
       </c>
       <c r="O41">
-        <v>1606.2919999999999</v>
+        <v>315.64499999999998</v>
       </c>
       <c r="P41">
-        <v>990.59799999999996</v>
+        <v>132.36000000000001</v>
       </c>
       <c r="Q41">
-        <v>70.293999999999997</v>
+        <v>15.537000000000001</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>441.11500000000001</v>
+        <v>546.65200000000004</v>
       </c>
       <c r="U41">
-        <v>175.58699999999999</v>
+        <v>133.512</v>
       </c>
       <c r="V41">
-        <v>193.11600000000001</v>
+        <v>54.898000000000003</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>-104.184</v>
+        <v>-32.072000000000003</v>
       </c>
       <c r="Y41">
-        <v>70.700999999999993</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>146.21899999999999</v>
+        <v>34.694000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>36.371000000000002</v>
+      </c>
+      <c r="D42">
+        <v>283.75700000000001</v>
+      </c>
+      <c r="E42">
+        <v>120.08</v>
+      </c>
+      <c r="F42">
+        <v>144.77099999999999</v>
+      </c>
+      <c r="G42">
+        <v>460.59100000000001</v>
+      </c>
+      <c r="H42">
+        <v>897.14400000000001</v>
+      </c>
+      <c r="I42">
+        <v>22.669</v>
+      </c>
+      <c r="J42">
+        <v>3.4180000000000001</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>285.11200000000002</v>
+      </c>
+      <c r="O42">
+        <v>322.863</v>
+      </c>
+      <c r="P42">
+        <v>133.28</v>
+      </c>
+      <c r="Q42">
+        <v>23.402999999999999</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>4800</v>
+      </c>
+      <c r="T42">
+        <v>574.28099999999995</v>
+      </c>
+      <c r="U42">
+        <v>156.91499999999999</v>
+      </c>
+      <c r="V42">
+        <v>48.85</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-11.49</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>36.371000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>36.612000000000002</v>
+      </c>
+      <c r="D43">
+        <v>292.67200000000003</v>
+      </c>
+      <c r="E43">
+        <v>137.55099999999999</v>
+      </c>
+      <c r="F43">
+        <v>154.92500000000001</v>
+      </c>
+      <c r="G43">
+        <v>465.44099999999997</v>
+      </c>
+      <c r="H43">
+        <v>909.47799999999995</v>
+      </c>
+      <c r="I43">
+        <v>23.334</v>
+      </c>
+      <c r="J43">
+        <v>3.194</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-2.6970000000000001</v>
+      </c>
+      <c r="N43">
+        <v>272.57</v>
+      </c>
+      <c r="O43">
+        <v>312.57</v>
+      </c>
+      <c r="P43">
+        <v>131.99199999999999</v>
+      </c>
+      <c r="Q43">
+        <v>-3.456</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>596.90800000000002</v>
+      </c>
+      <c r="U43">
+        <v>153.459</v>
+      </c>
+      <c r="V43">
+        <v>25.218</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-23.45</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>36.612000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>48.656999999999996</v>
+      </c>
+      <c r="D44">
+        <v>317.86200000000002</v>
+      </c>
+      <c r="E44">
+        <v>149.31399999999999</v>
+      </c>
+      <c r="F44">
+        <v>174.03299999999999</v>
+      </c>
+      <c r="G44">
+        <v>493.57100000000003</v>
+      </c>
+      <c r="H44">
+        <v>950.57500000000005</v>
+      </c>
+      <c r="I44">
+        <v>29.888000000000002</v>
+      </c>
+      <c r="J44">
+        <v>2.9660000000000002</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>298.137</v>
+      </c>
+      <c r="O44">
+        <v>341.76400000000001</v>
+      </c>
+      <c r="P44">
+        <v>137.45500000000001</v>
+      </c>
+      <c r="Q44">
+        <v>5.9390000000000001</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>608.81100000000004</v>
+      </c>
+      <c r="U44">
+        <v>159.398</v>
+      </c>
+      <c r="V44">
+        <v>63.091999999999999</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-41.686999999999998</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>48.656999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>38.506999999999998</v>
+      </c>
+      <c r="D45">
+        <v>300.95400000000001</v>
+      </c>
+      <c r="E45">
+        <v>134.923</v>
+      </c>
+      <c r="F45">
+        <v>158.667</v>
+      </c>
+      <c r="G45">
+        <v>510.75200000000001</v>
+      </c>
+      <c r="H45">
+        <v>969.19899999999996</v>
+      </c>
+      <c r="I45">
+        <v>31.032</v>
+      </c>
+      <c r="J45">
+        <v>2.7349999999999999</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>336.36900000000003</v>
+      </c>
+      <c r="O45">
+        <v>383.23099999999999</v>
+      </c>
+      <c r="P45">
+        <v>158.779</v>
+      </c>
+      <c r="Q45">
+        <v>22.100999999999999</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>585.96799999999996</v>
+      </c>
+      <c r="U45">
+        <v>181.499</v>
+      </c>
+      <c r="V45">
+        <v>75.207999999999998</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-36.53</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>38.506999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>38.01</v>
+      </c>
+      <c r="D46">
+        <v>307.20100000000002</v>
+      </c>
+      <c r="E46">
+        <v>141.27500000000001</v>
+      </c>
+      <c r="F46">
+        <v>158.881</v>
+      </c>
+      <c r="G46">
+        <v>524.22699999999998</v>
+      </c>
+      <c r="H46">
+        <v>1030.8140000000001</v>
+      </c>
+      <c r="I46">
+        <v>36.551000000000002</v>
+      </c>
+      <c r="J46">
+        <v>2.5009999999999999</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>436.87900000000002</v>
+      </c>
+      <c r="O46">
+        <v>491.221</v>
+      </c>
+      <c r="P46">
+        <v>247.83500000000001</v>
+      </c>
+      <c r="Q46">
+        <v>2.3959999999999999</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>5100</v>
+      </c>
+      <c r="T46">
+        <v>539.59299999999996</v>
+      </c>
+      <c r="U46">
+        <v>183.89500000000001</v>
+      </c>
+      <c r="V46">
+        <v>57.182000000000002</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>4.01</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>38.01</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>40.743000000000002</v>
+      </c>
+      <c r="D47">
+        <v>322.67599999999999</v>
+      </c>
+      <c r="E47">
+        <v>160.98099999999999</v>
+      </c>
+      <c r="F47">
+        <v>174.774</v>
+      </c>
+      <c r="G47">
+        <v>544.86599999999999</v>
+      </c>
+      <c r="H47">
+        <v>1061.105</v>
+      </c>
+      <c r="I47">
+        <v>40.613999999999997</v>
+      </c>
+      <c r="J47">
+        <v>2.2629999999999999</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-0.224</v>
+      </c>
+      <c r="N47">
+        <v>437.28399999999999</v>
+      </c>
+      <c r="O47">
+        <v>494.22399999999999</v>
+      </c>
+      <c r="P47">
+        <v>258.43599999999998</v>
+      </c>
+      <c r="Q47">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>566.88099999999997</v>
+      </c>
+      <c r="U47">
+        <v>185.49100000000001</v>
+      </c>
+      <c r="V47">
+        <v>15.183999999999999</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-6.5640000000000001</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>40.743000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>51.317</v>
+      </c>
+      <c r="D48">
+        <v>335.649</v>
+      </c>
+      <c r="E48">
+        <v>147.15899999999999</v>
+      </c>
+      <c r="F48">
+        <v>184.68899999999999</v>
+      </c>
+      <c r="G48">
+        <v>555.30700000000002</v>
+      </c>
+      <c r="H48">
+        <v>1067.317</v>
+      </c>
+      <c r="I48">
+        <v>29.706</v>
+      </c>
+      <c r="J48">
+        <v>2.0209999999999999</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>419.15100000000001</v>
+      </c>
+      <c r="O48">
+        <v>477.37599999999998</v>
+      </c>
+      <c r="P48">
+        <v>249.24100000000001</v>
+      </c>
+      <c r="Q48">
+        <v>16.321999999999999</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>589.94100000000003</v>
+      </c>
+      <c r="U48">
+        <v>201.81299999999999</v>
+      </c>
+      <c r="V48">
+        <v>63.616</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-31.701000000000001</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>51.317</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>42.853000000000002</v>
+      </c>
+      <c r="D49">
+        <v>315.47500000000002</v>
+      </c>
+      <c r="E49">
+        <v>141.374</v>
+      </c>
+      <c r="F49">
+        <v>170.63499999999999</v>
+      </c>
+      <c r="G49">
+        <v>570.774</v>
+      </c>
+      <c r="H49">
+        <v>1093.3510000000001</v>
+      </c>
+      <c r="I49">
+        <v>31.728000000000002</v>
+      </c>
+      <c r="J49">
+        <v>1.776</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>415.846</v>
+      </c>
+      <c r="O49">
+        <v>475.81599999999997</v>
+      </c>
+      <c r="P49">
+        <v>237.53399999999999</v>
+      </c>
+      <c r="Q49">
+        <v>19.628</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>617.53499999999997</v>
+      </c>
+      <c r="U49">
+        <v>221.441</v>
+      </c>
+      <c r="V49">
+        <v>74.688000000000002</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-37.231000000000002</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>42.853000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>43.353999999999999</v>
+      </c>
+      <c r="D50">
+        <v>319.53800000000001</v>
+      </c>
+      <c r="E50">
+        <v>138.32400000000001</v>
+      </c>
+      <c r="F50">
+        <v>169.05</v>
+      </c>
+      <c r="G50">
+        <v>569.53700000000003</v>
+      </c>
+      <c r="H50">
+        <v>1103.6020000000001</v>
+      </c>
+      <c r="I50">
+        <v>35.287999999999997</v>
+      </c>
+      <c r="J50">
+        <v>1.3939999999999999</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>406.33300000000003</v>
+      </c>
+      <c r="O50">
+        <v>467.34500000000003</v>
+      </c>
+      <c r="P50">
+        <v>214.501</v>
+      </c>
+      <c r="Q50">
+        <v>2.5449999999999999</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>5400</v>
+      </c>
+      <c r="T50">
+        <v>636.25699999999995</v>
+      </c>
+      <c r="U50">
+        <v>223.98599999999999</v>
+      </c>
+      <c r="V50">
+        <v>68.92</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-49.847000000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>43.353999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>44.86</v>
+      </c>
+      <c r="D51">
+        <v>332.10599999999999</v>
+      </c>
+      <c r="E51">
+        <v>158.988</v>
+      </c>
+      <c r="F51">
+        <v>183.97399999999999</v>
+      </c>
+      <c r="G51">
+        <v>594.39499999999998</v>
+      </c>
+      <c r="H51">
+        <v>1132.6379999999999</v>
+      </c>
+      <c r="I51">
+        <v>38.716000000000001</v>
+      </c>
+      <c r="J51">
+        <v>1.141</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-0.23799999999999999</v>
+      </c>
+      <c r="N51">
+        <v>439.577</v>
+      </c>
+      <c r="O51">
+        <v>501.34300000000002</v>
+      </c>
+      <c r="P51">
+        <v>264.86900000000003</v>
+      </c>
+      <c r="Q51">
+        <v>4.3780000000000001</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>631.29499999999996</v>
+      </c>
+      <c r="U51">
+        <v>228.364</v>
+      </c>
+      <c r="V51">
+        <v>21.055</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>2.2519999999999998</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>44.86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>53.994</v>
+      </c>
+      <c r="D52">
+        <v>352.58300000000003</v>
+      </c>
+      <c r="E52">
+        <v>159.119</v>
+      </c>
+      <c r="F52">
+        <v>197.69800000000001</v>
+      </c>
+      <c r="G52">
+        <v>614.90200000000004</v>
+      </c>
+      <c r="H52">
+        <v>1164.0709999999999</v>
+      </c>
+      <c r="I52">
+        <v>37.584000000000003</v>
+      </c>
+      <c r="J52">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>551.67100000000005</v>
+      </c>
+      <c r="O52">
+        <v>614.48</v>
+      </c>
+      <c r="P52">
+        <v>371.37700000000001</v>
+      </c>
+      <c r="Q52">
+        <v>22.649000000000001</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>549.59100000000001</v>
+      </c>
+      <c r="U52">
+        <v>251.01300000000001</v>
+      </c>
+      <c r="V52">
+        <v>81.429000000000002</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-31.317</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>53.994999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>45.688000000000002</v>
+      </c>
+      <c r="D53">
+        <v>338.29700000000003</v>
+      </c>
+      <c r="E53">
+        <v>151.56800000000001</v>
+      </c>
+      <c r="F53">
+        <v>185.78299999999999</v>
+      </c>
+      <c r="G53">
+        <v>625.22299999999996</v>
+      </c>
+      <c r="H53">
+        <v>1195.2380000000001</v>
+      </c>
+      <c r="I53">
+        <v>38.131</v>
+      </c>
+      <c r="J53">
+        <v>0.624</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>592.952</v>
+      </c>
+      <c r="O53">
+        <v>660.34299999999996</v>
+      </c>
+      <c r="P53">
+        <v>400.786</v>
+      </c>
+      <c r="Q53">
+        <v>13.798</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>534.89499999999998</v>
+      </c>
+      <c r="U53">
+        <v>264.81099999999998</v>
+      </c>
+      <c r="V53">
+        <v>78.096999999999994</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-40.331000000000003</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>45.688000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>43.258000000000003</v>
+      </c>
+      <c r="D54">
+        <v>354.07299999999998</v>
+      </c>
+      <c r="E54">
+        <v>158.03800000000001</v>
+      </c>
+      <c r="F54">
+        <v>188.66499999999999</v>
+      </c>
+      <c r="G54">
+        <v>652.70600000000002</v>
+      </c>
+      <c r="H54">
+        <v>1230.5160000000001</v>
+      </c>
+      <c r="I54">
+        <v>29.940999999999999</v>
+      </c>
+      <c r="J54">
+        <v>150.35900000000001</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>478.35300000000001</v>
+      </c>
+      <c r="O54">
+        <v>712.30200000000002</v>
+      </c>
+      <c r="P54">
+        <v>430.21499999999997</v>
+      </c>
+      <c r="Q54">
+        <v>14.247</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>5700</v>
+      </c>
+      <c r="T54">
+        <v>518.21400000000006</v>
+      </c>
+      <c r="U54">
+        <v>279.05799999999999</v>
+      </c>
+      <c r="V54">
+        <v>65.415000000000006</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-33.055</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>43.258000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>46.585000000000001</v>
+      </c>
+      <c r="D55">
+        <v>360.20299999999997</v>
+      </c>
+      <c r="E55">
+        <v>179.91900000000001</v>
+      </c>
+      <c r="F55">
+        <v>202.09700000000001</v>
+      </c>
+      <c r="G55">
+        <v>683.16600000000005</v>
+      </c>
+      <c r="H55">
+        <v>1262.3240000000001</v>
+      </c>
+      <c r="I55">
+        <v>42.793999999999997</v>
+      </c>
+      <c r="J55">
+        <v>150.09</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-0.253</v>
+      </c>
+      <c r="N55">
+        <v>517.173</v>
+      </c>
+      <c r="O55">
+        <v>750.072</v>
+      </c>
+      <c r="P55">
+        <v>466.14</v>
+      </c>
+      <c r="Q55">
+        <v>7.1449999999999996</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>512.25199999999995</v>
+      </c>
+      <c r="U55">
+        <v>286.20299999999997</v>
+      </c>
+      <c r="V55">
+        <v>33.518000000000001</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-14.96</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>46.585000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>57.218000000000004</v>
+      </c>
+      <c r="D56">
+        <v>390.12200000000001</v>
+      </c>
+      <c r="E56">
+        <v>168.64099999999999</v>
+      </c>
+      <c r="F56">
+        <v>218.518</v>
+      </c>
+      <c r="G56">
+        <v>701.70699999999999</v>
+      </c>
+      <c r="H56">
+        <v>1283.193</v>
+      </c>
+      <c r="I56">
+        <v>41.424999999999997</v>
+      </c>
+      <c r="J56">
+        <v>150</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>600.35199999999998</v>
+      </c>
+      <c r="O56">
+        <v>830.26300000000003</v>
+      </c>
+      <c r="P56">
+        <v>535.59799999999996</v>
+      </c>
+      <c r="Q56">
+        <v>18.844999999999999</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>452.93</v>
+      </c>
+      <c r="U56">
+        <v>305.048</v>
+      </c>
+      <c r="V56">
+        <v>81.762</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-54.548999999999999</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>5.4</v>
+      </c>
+      <c r="AA56">
+        <v>57.218000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>52.142000000000003</v>
+      </c>
+      <c r="D57">
+        <v>383.52300000000002</v>
+      </c>
+      <c r="E57">
+        <v>160.46700000000001</v>
+      </c>
+      <c r="F57">
+        <v>213.33600000000001</v>
+      </c>
+      <c r="G57">
+        <v>702.62099999999998</v>
+      </c>
+      <c r="H57">
+        <v>1290.6320000000001</v>
+      </c>
+      <c r="I57">
+        <v>58.255000000000003</v>
+      </c>
+      <c r="J57">
+        <v>350</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>630.26400000000001</v>
+      </c>
+      <c r="O57">
+        <v>1061.1610000000001</v>
+      </c>
+      <c r="P57">
+        <v>726.24199999999996</v>
+      </c>
+      <c r="Q57">
+        <v>-12.313000000000001</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>229.471</v>
+      </c>
+      <c r="U57">
+        <v>292.73500000000001</v>
+      </c>
+      <c r="V57">
+        <v>93.263000000000005</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-76.268000000000001</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>52.142000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>25.960999999999999</v>
+      </c>
+      <c r="D58">
+        <v>351.959</v>
+      </c>
+      <c r="E58">
+        <v>152.38</v>
+      </c>
+      <c r="F58">
+        <v>182.16499999999999</v>
+      </c>
+      <c r="G58">
+        <v>759.39800000000002</v>
+      </c>
+      <c r="H58">
+        <v>1384.211</v>
+      </c>
+      <c r="I58">
+        <v>44.743000000000002</v>
+      </c>
+      <c r="J58">
+        <v>350</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>820.90599999999995</v>
+      </c>
+      <c r="O58">
+        <v>1266.6220000000001</v>
+      </c>
+      <c r="P58">
+        <v>899</v>
+      </c>
+      <c r="Q58">
+        <v>29.800999999999998</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>6400</v>
+      </c>
+      <c r="T58">
+        <v>117.589</v>
+      </c>
+      <c r="U58">
+        <v>322.536</v>
+      </c>
+      <c r="V58">
+        <v>27.303000000000001</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>42.338999999999999</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>25.960999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>46.594000000000001</v>
+      </c>
+      <c r="D59">
+        <v>382.47699999999998</v>
+      </c>
+      <c r="E59">
+        <v>196.23099999999999</v>
+      </c>
+      <c r="F59">
+        <v>215.54400000000001</v>
+      </c>
+      <c r="G59">
+        <v>808.90899999999999</v>
+      </c>
+      <c r="H59">
+        <v>1431.0139999999999</v>
+      </c>
+      <c r="I59">
+        <v>44.183</v>
+      </c>
+      <c r="J59">
+        <v>500</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>803.44500000000005</v>
+      </c>
+      <c r="O59">
+        <v>1396.9349999999999</v>
+      </c>
+      <c r="P59">
+        <v>1050.5509999999999</v>
+      </c>
+      <c r="Q59">
+        <v>-140.376</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>34.079000000000001</v>
+      </c>
+      <c r="U59">
+        <v>182.16</v>
+      </c>
+      <c r="V59">
+        <v>-14.644</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>36.801000000000002</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-137.22</v>
+      </c>
+      <c r="AA59">
+        <v>46.594000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>56.911999999999999</v>
+      </c>
+      <c r="D60">
+        <v>413.34300000000002</v>
+      </c>
+      <c r="E60">
+        <v>199.44399999999999</v>
+      </c>
+      <c r="F60">
+        <v>232.75700000000001</v>
+      </c>
+      <c r="G60">
+        <v>833.03399999999999</v>
+      </c>
+      <c r="H60">
+        <v>1477.37</v>
+      </c>
+      <c r="I60">
+        <v>58.212000000000003</v>
+      </c>
+      <c r="J60">
+        <v>598.92499999999995</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>775.428</v>
+      </c>
+      <c r="O60">
+        <v>1468.819</v>
+      </c>
+      <c r="P60">
+        <v>1097.7950000000001</v>
+      </c>
+      <c r="Q60">
+        <v>-19.007999999999999</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>8.5510000000000002</v>
+      </c>
+      <c r="U60">
+        <v>163.15199999999999</v>
+      </c>
+      <c r="V60">
+        <v>80.165999999999997</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-33.531999999999996</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-43.110999999999997</v>
+      </c>
+      <c r="AA60">
+        <v>56.911999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>44.222999999999999</v>
+      </c>
+      <c r="D61">
+        <v>406.387</v>
+      </c>
+      <c r="E61">
+        <v>190.904</v>
+      </c>
+      <c r="F61">
+        <v>224.274</v>
+      </c>
+      <c r="G61">
+        <v>833.39599999999996</v>
+      </c>
+      <c r="H61">
+        <v>1477.21</v>
+      </c>
+      <c r="I61">
+        <v>53.613999999999997</v>
+      </c>
+      <c r="J61">
+        <v>599.55600000000004</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>824.76599999999996</v>
+      </c>
+      <c r="O61">
+        <v>1516.0129999999999</v>
+      </c>
+      <c r="P61">
+        <v>1142.056</v>
+      </c>
+      <c r="Q61">
+        <v>-22.001999999999999</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>-38.802999999999997</v>
+      </c>
+      <c r="U61">
+        <v>141.15</v>
+      </c>
+      <c r="V61">
+        <v>76.945999999999998</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-39.662999999999997</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-26.344999999999999</v>
+      </c>
+      <c r="AA61">
+        <v>44.222999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>44.348999999999997</v>
+      </c>
+      <c r="D62">
+        <v>399.685</v>
+      </c>
+      <c r="E62">
+        <v>188.31800000000001</v>
+      </c>
+      <c r="F62">
+        <v>217.69499999999999</v>
+      </c>
+      <c r="G62">
+        <v>821.63400000000001</v>
+      </c>
+      <c r="H62">
+        <v>1474.9929999999999</v>
+      </c>
+      <c r="I62">
+        <v>52.648000000000003</v>
+      </c>
+      <c r="J62">
+        <v>597.08500000000004</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>856.76099999999997</v>
+      </c>
+      <c r="O62">
+        <v>1558.9880000000001</v>
+      </c>
+      <c r="P62">
+        <v>1170.085</v>
+      </c>
+      <c r="Q62">
+        <v>-12.156000000000001</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>6800</v>
+      </c>
+      <c r="T62">
+        <v>-83.995000000000005</v>
+      </c>
+      <c r="U62">
+        <v>128.994</v>
+      </c>
+      <c r="V62">
+        <v>73.896000000000001</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-59.158000000000001</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-8.5069999999999997</v>
+      </c>
+      <c r="AA62">
+        <v>44.348999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>46.018999999999998</v>
+      </c>
+      <c r="D63">
+        <v>417.55</v>
+      </c>
+      <c r="E63">
+        <v>212.072</v>
+      </c>
+      <c r="F63">
+        <v>227.53700000000001</v>
+      </c>
+      <c r="G63">
+        <v>809.00599999999997</v>
+      </c>
+      <c r="H63">
+        <v>1478.6469999999999</v>
+      </c>
+      <c r="I63">
+        <v>52.457999999999998</v>
+      </c>
+      <c r="J63">
+        <v>600.02099999999996</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>878.66800000000001</v>
+      </c>
+      <c r="O63">
+        <v>1552.434</v>
+      </c>
+      <c r="P63">
+        <v>1222.021</v>
+      </c>
+      <c r="Q63">
+        <v>3.9590000000000001</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>-73.787000000000006</v>
+      </c>
+      <c r="U63">
+        <v>132.953</v>
+      </c>
+      <c r="V63">
+        <v>26.99</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-2.5619999999999998</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-1.893</v>
+      </c>
+      <c r="AA63">
+        <v>46.018999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>67.201999999999998</v>
+      </c>
+      <c r="D64">
+        <v>466.56900000000002</v>
+      </c>
+      <c r="E64">
+        <v>212.22900000000001</v>
+      </c>
+      <c r="F64">
+        <v>260.54300000000001</v>
+      </c>
+      <c r="G64">
+        <v>821.11</v>
+      </c>
+      <c r="H64">
+        <v>1489.241</v>
+      </c>
+      <c r="I64">
+        <v>50.085000000000001</v>
+      </c>
+      <c r="J64">
+        <v>597.95799999999997</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>822.77599999999995</v>
+      </c>
+      <c r="O64">
+        <v>1497.739</v>
+      </c>
+      <c r="P64">
+        <v>1155.9580000000001</v>
+      </c>
+      <c r="Q64">
+        <v>8.1859999999999999</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>-8.4979999999999993</v>
+      </c>
+      <c r="U64">
+        <v>141.13900000000001</v>
+      </c>
+      <c r="V64">
+        <v>110.883</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-73.135000000000005</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-13.801</v>
+      </c>
+      <c r="AA64">
+        <v>67.201999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>56.454999999999998</v>
+      </c>
+      <c r="D65">
+        <v>448.30799999999999</v>
+      </c>
+      <c r="E65">
+        <v>204.70099999999999</v>
+      </c>
+      <c r="F65">
+        <v>246.73</v>
+      </c>
+      <c r="G65">
+        <v>828.1</v>
+      </c>
+      <c r="H65">
+        <v>1500.37</v>
+      </c>
+      <c r="I65">
+        <v>44.127000000000002</v>
+      </c>
+      <c r="J65">
+        <v>599.13699999999994</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>760.20799999999997</v>
+      </c>
+      <c r="O65">
+        <v>1445.384</v>
+      </c>
+      <c r="P65">
+        <v>1087.1369999999999</v>
+      </c>
+      <c r="Q65">
+        <v>8.9329999999999998</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>54.985999999999997</v>
+      </c>
+      <c r="U65">
+        <v>150.072</v>
+      </c>
+      <c r="V65">
+        <v>100.315</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-69.247</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-10.858000000000001</v>
+      </c>
+      <c r="AA65">
+        <v>56.454999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>52.369</v>
+      </c>
+      <c r="D66">
+        <v>442.99599999999998</v>
+      </c>
+      <c r="E66">
+        <v>204.494</v>
+      </c>
+      <c r="F66">
+        <v>240.626</v>
+      </c>
+      <c r="G66">
+        <v>845.58399999999995</v>
+      </c>
+      <c r="H66">
+        <v>1530.704</v>
+      </c>
+      <c r="I66">
+        <v>60.057000000000002</v>
+      </c>
+      <c r="J66">
+        <v>593.11</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>934.56799999999998</v>
+      </c>
+      <c r="O66">
+        <v>1638.9169999999999</v>
+      </c>
+      <c r="P66">
+        <v>1204.1099999999999</v>
+      </c>
+      <c r="Q66">
+        <v>4.8289999999999997</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>7365</v>
+      </c>
+      <c r="T66">
+        <v>-108.21299999999999</v>
+      </c>
+      <c r="U66">
+        <v>154.90100000000001</v>
+      </c>
+      <c r="V66">
+        <v>100.755</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-77.251999999999995</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>2.5169999999999999</v>
+      </c>
+      <c r="AA66">
+        <v>52.369</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>69.019000000000005</v>
+      </c>
+      <c r="D67">
+        <v>462.02100000000002</v>
+      </c>
+      <c r="E67">
+        <v>225.35300000000001</v>
+      </c>
+      <c r="F67">
+        <v>258.19099999999997</v>
+      </c>
+      <c r="G67">
+        <v>878.58799999999997</v>
+      </c>
+      <c r="H67">
+        <v>1572.0909999999999</v>
+      </c>
+      <c r="I67">
+        <v>62.249000000000002</v>
+      </c>
+      <c r="J67">
+        <v>594.86800000000005</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>936.077</v>
+      </c>
+      <c r="O67">
+        <v>1646.0029999999999</v>
+      </c>
+      <c r="P67">
+        <v>1265.8679999999999</v>
+      </c>
+      <c r="Q67">
+        <v>5.5069999999999997</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>-73.912000000000006</v>
+      </c>
+      <c r="U67">
+        <v>160.40799999999999</v>
+      </c>
+      <c r="V67">
+        <v>31.274000000000001</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>1.3129999999999999</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-3.016</v>
+      </c>
+      <c r="AA67">
+        <v>69.019000000000005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>85.356999999999999</v>
+      </c>
+      <c r="D68">
+        <v>508.94</v>
+      </c>
+      <c r="E68">
+        <v>240.262</v>
+      </c>
+      <c r="F68">
+        <v>292.71499999999997</v>
+      </c>
+      <c r="G68">
+        <v>918.65800000000002</v>
+      </c>
+      <c r="H68">
+        <v>1637.1369999999999</v>
+      </c>
+      <c r="I68">
+        <v>58.606000000000002</v>
+      </c>
+      <c r="J68">
+        <v>600.89099999999996</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1001.4930000000001</v>
+      </c>
+      <c r="O68">
+        <v>1723.2439999999999</v>
+      </c>
+      <c r="P68">
+        <v>1304.8910000000001</v>
+      </c>
+      <c r="Q68">
+        <v>5.5670000000000002</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>-86.106999999999999</v>
+      </c>
+      <c r="U68">
+        <v>165.97499999999999</v>
+      </c>
+      <c r="V68">
+        <v>110.19199999999999</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-63.4</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-16.603000000000002</v>
+      </c>
+      <c r="AA68">
+        <v>85.356999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>70.510999999999996</v>
+      </c>
+      <c r="D69">
+        <v>491.976</v>
+      </c>
+      <c r="E69">
+        <v>228.15899999999999</v>
+      </c>
+      <c r="F69">
+        <v>274.00200000000001</v>
+      </c>
+      <c r="G69">
+        <v>942.72199999999998</v>
+      </c>
+      <c r="H69">
+        <v>1669.3340000000001</v>
+      </c>
+      <c r="I69">
+        <v>60.582999999999998</v>
+      </c>
+      <c r="J69">
+        <v>604.149</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>996.54300000000001</v>
+      </c>
+      <c r="O69">
+        <v>1717.7249999999999</v>
+      </c>
+      <c r="P69">
+        <v>1290.3989999999999</v>
+      </c>
+      <c r="Q69">
+        <v>3.044</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>-48.390999999999998</v>
+      </c>
+      <c r="U69">
+        <v>169.01900000000001</v>
+      </c>
+      <c r="V69">
+        <v>110.684</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-67.870999999999995</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-25.363</v>
+      </c>
+      <c r="AA69">
+        <v>70.510999999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>38.256999999999998</v>
+      </c>
+      <c r="D70">
+        <v>506.12099999999998</v>
+      </c>
+      <c r="E70">
+        <v>234.59700000000001</v>
+      </c>
+      <c r="F70">
+        <v>272.47399999999999</v>
+      </c>
+      <c r="G70">
+        <v>971.98500000000001</v>
+      </c>
+      <c r="H70">
+        <v>1713.4159999999999</v>
+      </c>
+      <c r="I70">
+        <v>66.968000000000004</v>
+      </c>
+      <c r="J70">
+        <v>606.07500000000005</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1004.567</v>
+      </c>
+      <c r="O70">
+        <v>1767.258</v>
+      </c>
+      <c r="P70">
+        <v>1261.075</v>
+      </c>
+      <c r="Q70">
+        <v>18.655999999999999</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>7600</v>
+      </c>
+      <c r="T70">
+        <v>-53.841999999999999</v>
+      </c>
+      <c r="U70">
+        <v>187.67500000000001</v>
+      </c>
+      <c r="V70">
+        <v>121.126</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-78.058000000000007</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-2.423</v>
+      </c>
+      <c r="AA70">
+        <v>38.256999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>89.450999999999993</v>
+      </c>
+      <c r="D71">
+        <v>537.65599999999995</v>
+      </c>
+      <c r="E71">
+        <v>264.95</v>
+      </c>
+      <c r="F71">
+        <v>303.09899999999999</v>
+      </c>
+      <c r="G71">
+        <v>701.70699999999999</v>
+      </c>
+      <c r="H71">
+        <v>1469.492</v>
+      </c>
+      <c r="I71">
+        <v>70.409000000000006</v>
+      </c>
+      <c r="J71">
+        <v>609.005</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-247.5</v>
+      </c>
+      <c r="N71">
+        <v>728.83799999999997</v>
+      </c>
+      <c r="O71">
+        <v>1518.4739999999999</v>
+      </c>
+      <c r="P71">
+        <v>1016.505</v>
+      </c>
+      <c r="Q71">
+        <v>-28.446000000000002</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>-48.981999999999999</v>
+      </c>
+      <c r="U71">
+        <v>159.22900000000001</v>
+      </c>
+      <c r="V71">
+        <v>34.898000000000003</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-324.99099999999999</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>284.03800000000001</v>
+      </c>
+      <c r="AA71">
+        <v>89.450999999999993</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>108.691</v>
+      </c>
+      <c r="D72">
+        <v>580.75199999999995</v>
+      </c>
+      <c r="E72">
+        <v>271.57</v>
+      </c>
+      <c r="F72">
+        <v>332.43900000000002</v>
+      </c>
+      <c r="G72">
+        <v>739.83199999999999</v>
+      </c>
+      <c r="H72">
+        <v>1520.6849999999999</v>
+      </c>
+      <c r="I72">
+        <v>68.015000000000001</v>
+      </c>
+      <c r="J72">
+        <v>603.13</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>774.31600000000003</v>
+      </c>
+      <c r="O72">
+        <v>1561.5340000000001</v>
+      </c>
+      <c r="P72">
+        <v>1040.1300000000001</v>
+      </c>
+      <c r="Q72">
+        <v>15.33</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>-40.848999999999997</v>
+      </c>
+      <c r="U72">
+        <v>174.559</v>
+      </c>
+      <c r="V72">
+        <v>118.83</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-70.707999999999998</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>108.691</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>93.251000000000005</v>
+      </c>
+      <c r="D73">
+        <v>545.44799999999998</v>
+      </c>
+      <c r="E73">
+        <v>271.92</v>
+      </c>
+      <c r="F73">
+        <v>305.64299999999997</v>
+      </c>
+      <c r="G73">
+        <v>704.197</v>
+      </c>
+      <c r="H73">
+        <v>1544.53</v>
+      </c>
+      <c r="I73">
+        <v>65.456999999999994</v>
+      </c>
+      <c r="J73">
+        <v>602.41600000000005</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>759.53700000000003</v>
+      </c>
+      <c r="O73">
+        <v>1545.893</v>
+      </c>
+      <c r="P73">
+        <v>1016.9160000000001</v>
+      </c>
+      <c r="Q73">
+        <v>-27.681999999999999</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>-1.363</v>
+      </c>
+      <c r="U73">
+        <v>146.87700000000001</v>
+      </c>
+      <c r="V73">
+        <v>110.708</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-84.293999999999997</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>93.251000000000005</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>85.638000000000005</v>
+      </c>
+      <c r="D74">
+        <v>549.38599999999997</v>
+      </c>
+      <c r="E74">
+        <v>258.52499999999998</v>
+      </c>
+      <c r="F74">
+        <v>300.36099999999999</v>
+      </c>
+      <c r="G74">
+        <v>654.17200000000003</v>
+      </c>
+      <c r="H74">
+        <v>1537.3489999999999</v>
+      </c>
+      <c r="I74">
+        <v>69.534000000000006</v>
+      </c>
+      <c r="J74">
+        <v>601.34799999999996</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>770.44399999999996</v>
+      </c>
+      <c r="O74">
+        <v>1546.5820000000001</v>
+      </c>
+      <c r="P74">
+        <v>1000.285</v>
+      </c>
+      <c r="Q74">
+        <v>-23.082999999999998</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>8377</v>
+      </c>
+      <c r="T74">
+        <v>-9.2330000000000005</v>
+      </c>
+      <c r="U74">
+        <v>123.794</v>
+      </c>
+      <c r="V74">
+        <v>135.648</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-117.806</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>85.638000000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>102.681</v>
+      </c>
+      <c r="D75">
+        <v>576.05600000000004</v>
+      </c>
+      <c r="E75">
+        <v>292.82799999999997</v>
+      </c>
+      <c r="F75">
+        <v>331.59699999999998</v>
+      </c>
+      <c r="G75">
+        <v>697.64599999999996</v>
+      </c>
+      <c r="H75">
+        <v>1680.9680000000001</v>
+      </c>
+      <c r="I75">
+        <v>70.143000000000001</v>
+      </c>
+      <c r="J75">
+        <v>699.33399999999995</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-52.024000000000001</v>
+      </c>
+      <c r="N75">
+        <v>689.61900000000003</v>
+      </c>
+      <c r="O75">
+        <v>1629.098</v>
+      </c>
+      <c r="P75">
+        <v>1129.4390000000001</v>
+      </c>
+      <c r="Q75">
+        <v>-7.1779999999999999</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>51.87</v>
+      </c>
+      <c r="U75">
+        <v>116.616</v>
+      </c>
+      <c r="V75">
+        <v>34.378</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-2.7810000000000001</v>
+      </c>
+      <c r="Y75">
+        <v>69.174999999999997</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>102.681</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>125.706</v>
+      </c>
+      <c r="D76">
+        <v>620.10299999999995</v>
+      </c>
+      <c r="E76">
+        <v>299.16199999999998</v>
+      </c>
+      <c r="F76">
+        <v>357.85300000000001</v>
+      </c>
+      <c r="G76">
+        <v>712.298</v>
+      </c>
+      <c r="H76">
+        <v>1724.2370000000001</v>
+      </c>
+      <c r="I76">
+        <v>67.605999999999995</v>
+      </c>
+      <c r="J76">
+        <v>700.55200000000002</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>618.90899999999999</v>
+      </c>
+      <c r="O76">
+        <v>1552.6880000000001</v>
+      </c>
+      <c r="P76">
+        <v>1036.414</v>
+      </c>
+      <c r="Q76">
+        <v>-5.7709999999999999</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>171.54900000000001</v>
+      </c>
+      <c r="U76">
+        <v>110.845</v>
+      </c>
+      <c r="V76">
+        <v>137.102</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-109.488</v>
+      </c>
+      <c r="Y76">
+        <v>69.331000000000003</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>125.706</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>108.837</v>
+      </c>
+      <c r="D77">
+        <v>605.303</v>
+      </c>
+      <c r="E77">
+        <v>283.53699999999998</v>
+      </c>
+      <c r="F77">
+        <v>344.95</v>
+      </c>
+      <c r="G77">
+        <v>703.38199999999995</v>
+      </c>
+      <c r="H77">
+        <v>1751.481</v>
+      </c>
+      <c r="I77">
+        <v>75.515000000000001</v>
+      </c>
+      <c r="J77">
+        <v>696.63400000000001</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>626.62699999999995</v>
+      </c>
+      <c r="O77">
+        <v>1548.759</v>
+      </c>
+      <c r="P77">
+        <v>1007.422</v>
+      </c>
+      <c r="Q77">
+        <v>-6.8490000000000002</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>202.72200000000001</v>
+      </c>
+      <c r="U77">
+        <v>103.996</v>
+      </c>
+      <c r="V77">
+        <v>132.26499999999999</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-99.751000000000005</v>
+      </c>
+      <c r="Y77">
+        <v>66.486000000000004</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>108.837</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>90.495999999999995</v>
+      </c>
+      <c r="D78">
+        <v>605.44600000000003</v>
+      </c>
+      <c r="E78">
+        <v>286.971</v>
+      </c>
+      <c r="F78">
+        <v>331.149</v>
+      </c>
+      <c r="G78">
+        <v>679.63900000000001</v>
+      </c>
+      <c r="H78">
+        <v>1832.4749999999999</v>
+      </c>
+      <c r="I78">
+        <v>72.171999999999997</v>
+      </c>
+      <c r="J78">
+        <v>698.91</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>725.33699999999999</v>
+      </c>
+      <c r="O78">
+        <v>1654.65</v>
+      </c>
+      <c r="P78">
+        <v>1070.4280000000001</v>
+      </c>
+      <c r="Q78">
+        <v>-13.67</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>9200</v>
+      </c>
+      <c r="T78">
+        <v>177.82499999999999</v>
+      </c>
+      <c r="U78">
+        <v>90.325999999999993</v>
+      </c>
+      <c r="V78">
+        <v>155.41300000000001</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>-74.388999999999996</v>
+      </c>
+      <c r="Y78">
+        <v>67.471999999999994</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>90.495999999999995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>111.827</v>
+      </c>
+      <c r="D79">
+        <v>626.33600000000001</v>
+      </c>
+      <c r="E79">
+        <v>318.65300000000002</v>
+      </c>
+      <c r="F79">
+        <v>359.59</v>
+      </c>
+      <c r="G79">
+        <v>721.351</v>
+      </c>
+      <c r="H79">
+        <v>1886.2449999999999</v>
+      </c>
+      <c r="I79">
+        <v>74.209999999999994</v>
+      </c>
+      <c r="J79">
+        <v>697.36300000000006</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>846.24099999999999</v>
+      </c>
+      <c r="O79">
+        <v>1778.19</v>
+      </c>
+      <c r="P79">
+        <v>1265.107</v>
+      </c>
+      <c r="Q79">
+        <v>-8.9309999999999992</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>108.05500000000001</v>
+      </c>
+      <c r="U79">
+        <v>81.394999999999996</v>
+      </c>
+      <c r="V79">
+        <v>27.870999999999999</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>16.901</v>
+      </c>
+      <c r="Y79">
+        <v>65.427000000000007</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>111.827</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>148.94</v>
+      </c>
+      <c r="D80">
+        <v>637.59199999999998</v>
+      </c>
+      <c r="E80">
+        <v>339.18</v>
+      </c>
+      <c r="F80">
+        <v>379.34199999999998</v>
+      </c>
+      <c r="G80">
+        <v>779.61199999999997</v>
+      </c>
+      <c r="H80">
+        <v>1960.713</v>
+      </c>
+      <c r="I80">
+        <v>73.903000000000006</v>
+      </c>
+      <c r="J80">
+        <v>899.56200000000001</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>540.58399999999995</v>
+      </c>
+      <c r="O80">
+        <v>1687.3130000000001</v>
+      </c>
+      <c r="P80">
+        <v>1106.2929999999999</v>
+      </c>
+      <c r="Q80">
+        <v>23.898</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>273.39999999999998</v>
+      </c>
+      <c r="U80">
+        <v>105.29300000000001</v>
+      </c>
+      <c r="V80">
+        <v>208.142</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>-161.53100000000001</v>
+      </c>
+      <c r="Y80">
+        <v>68.662000000000006</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>148.94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>146.21899999999999</v>
+      </c>
+      <c r="D81">
+        <v>721.78899999999999</v>
+      </c>
+      <c r="E81">
+        <v>357.95400000000001</v>
+      </c>
+      <c r="F81">
+        <v>422.60599999999999</v>
+      </c>
+      <c r="G81">
+        <v>868.67899999999997</v>
+      </c>
+      <c r="H81">
+        <v>2047.4069999999999</v>
+      </c>
+      <c r="I81">
+        <v>71.933000000000007</v>
+      </c>
+      <c r="J81">
+        <v>853.31600000000003</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>526.84100000000001</v>
+      </c>
+      <c r="O81">
+        <v>1606.2919999999999</v>
+      </c>
+      <c r="P81">
+        <v>990.59799999999996</v>
+      </c>
+      <c r="Q81">
+        <v>70.293999999999997</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>441.11500000000001</v>
+      </c>
+      <c r="U81">
+        <v>175.58699999999999</v>
+      </c>
+      <c r="V81">
+        <v>193.11600000000001</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>-104.184</v>
+      </c>
+      <c r="Y81">
+        <v>70.700999999999993</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>146.21899999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>174.79</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>720.93799999999999</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>355.26600000000002</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>409.50200000000001</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>1062.7380000000001</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>2294.5610000000001</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>74.558000000000007</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>858.49199999999996</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>582.76099999999997</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>1661.7660000000001</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>1003.278</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>208.34100000000001</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>9300</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>632.79499999999996</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>383.928</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>218.934</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>0.39800000000000002</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>77.064999999999998</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>174.79</v>
       </c>
     </row>
